--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -15,6 +15,7 @@
     <sheet name="CNN1 1000" sheetId="6" r:id="rId6"/>
     <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
     <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
+    <sheet name="TF-IDF" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19965,4 +19966,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="35760" windowHeight="15780" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="35760" windowHeight="15780" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
     <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
     <sheet name="TF-IDF" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="361">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -3746,13 +3747,115 @@
   </si>
   <si>
     <t xml:space="preserve">	[0.9914282417297363,</t>
+  </si>
+  <si>
+    <t>[('LinearSVC',</t>
+  </si>
+  <si>
+    <t>0.99928571428571433,</t>
+  </si>
+  <si>
+    <t>0.745,</t>
+  </si>
+  <si>
+    <t>0.74747474747474751,</t>
+  </si>
+  <si>
+    <t>0.74436090225563922),</t>
+  </si>
+  <si>
+    <t>('SGDClassifier',</t>
+  </si>
+  <si>
+    <t>0.73750000000000004,</t>
+  </si>
+  <si>
+    <t>0.73922842537332223,</t>
+  </si>
+  <si>
+    <t>0.73702500140879457),</t>
+  </si>
+  <si>
+    <t>('MultinomialNB',</t>
+  </si>
+  <si>
+    <t>0.77000000000000002,</t>
+  </si>
+  <si>
+    <t>0.77067669172932329,</t>
+  </si>
+  <si>
+    <t>0.76985616010006264)]</t>
+  </si>
+  <si>
+    <t>Binary 200-200-700</t>
+  </si>
+  <si>
+    <t>Binary 400-400-1400</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>5-way</t>
+  </si>
+  <si>
+    <t>2-way</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>0.3878 (0.0167)</t>
+  </si>
+  <si>
+    <t>0.3934 (0.0229)</t>
+  </si>
+  <si>
+    <t>0.4007 (0.0164)</t>
+  </si>
+  <si>
+    <t>0.4027 (0.0214)</t>
+  </si>
+  <si>
+    <t>0.766 (0.0064)</t>
+  </si>
+  <si>
+    <t>0.7405 (0.0080)</t>
+  </si>
+  <si>
+    <t>0.736 (0.0107)</t>
+  </si>
+  <si>
+    <t>0.7235 (0.0122)</t>
+  </si>
+  <si>
+    <t>CNN small</t>
+  </si>
+  <si>
+    <t>CNN big</t>
+  </si>
+  <si>
+    <t>TF-IDF NB</t>
+  </si>
+  <si>
+    <t>TF-IDF SGD</t>
+  </si>
+  <si>
+    <t>TF-IDF SVC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3772,6 +3875,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3852,7 +3962,7 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3883,6 +3993,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3893,7 +4009,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3925,61 +4041,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3995,6 +4155,27 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4010,6 +4191,27 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14121,6 +14323,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="55.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5">
+        <v>0.54</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7">
+        <v>0.53</v>
+      </c>
+      <c r="D7">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
@@ -16086,185 +16423,185 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="18">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:1" ht="18">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="19"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1" ht="18">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -17552,211 +17889,211 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="18">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
     </row>
     <row r="41" spans="1:1" ht="18">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="11"/>
+      <c r="A49" s="12"/>
     </row>
     <row r="50" spans="1:1" ht="18">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="18">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="18">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="18">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="18">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="18">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="18">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="18">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="18">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="18">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="18">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="18">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="18">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="18">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="18">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="18">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="18">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="16" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="18">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="18">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="18">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="18">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="18">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="18">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="18">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -17776,7 +18113,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18247,188 +18584,189 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:1" ht="18">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="16" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="16" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="18">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="18">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="17" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="18">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="18">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="18">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="16" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="16" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="18">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="16" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="18">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="16" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="18">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="15" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="18">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="18">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="16" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18442,7 +18780,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18913,155 +19251,156 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="18">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="18">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="18">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="18">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="18">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="18">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="18">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="18">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="18">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="18">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="18">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="18">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="18">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="18">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="18">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="18">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="18">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="18">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="18">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="18">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="18">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="18">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="16" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="18">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="18">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="18">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="18">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19072,10 +19411,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19741,6 +20080,20 @@
         <v>0.74124999999999996</v>
       </c>
     </row>
+    <row r="25" spans="1:13">
+      <c r="K25">
+        <f>AVERAGE(K20:K24)</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" ref="L25:M25" si="0">AVERAGE(L20:L24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0.74049999999999994</v>
+      </c>
+    </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>273</v>
@@ -19751,6 +20104,18 @@
       <c r="C26" t="s">
         <v>274</v>
       </c>
+      <c r="K26">
+        <f>STDEV(K20:K24)</f>
+        <v>6.4590053413819126E-3</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" ref="L26:M26" si="1">STDEV(L20:L24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>8.0816149376222949E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
@@ -19955,6 +20320,34 @@
       </c>
       <c r="M31">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="K32">
+        <f>AVERAGE(K27:K31)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" ref="L32:M32" si="2">AVERAGE(L27:L31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.72350000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13">
+      <c r="K33">
+        <f>STDEV(K27:K31)</f>
+        <v>1.0767427733679015E-2</v>
+      </c>
+      <c r="L33" t="e">
+        <f t="shared" ref="L33:M33" si="3">STDEV(L27:L31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>1.2228297101395596E-2</v>
       </c>
     </row>
   </sheetData>
@@ -19970,13 +20363,87 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>337</v>
+      </c>
+      <c r="R3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftorabia/workspace/shared/sfu/fake_news/data/buzzfeed-debunk-combined/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="35760" windowHeight="15780" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -18,13 +23,13 @@
     <sheet name="TF-IDF" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -344,6 +349,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -352,6 +358,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>300</t>
     </r>
@@ -365,6 +372,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -373,6 +381,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>"../pretrained/Gloved-GoogleNews-vectors-negative300.txt"</t>
     </r>
@@ -382,6 +391,7 @@
         <sz val="13.5"/>
         <color rgb="FF5F5A60"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>#../pretrained/glove.6B.100d.txt"): ## "../pretrained/Gloved-GoogleNews-vectors-negative300.txt"):</t>
     </r>
@@ -395,6 +405,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -403,6 +414,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>500</t>
     </r>
@@ -416,6 +428,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -424,6 +437,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>20000</t>
     </r>
@@ -437,6 +451,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -445,6 +460,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>0.2</t>
     </r>
@@ -458,6 +474,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -466,6 +483,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -479,6 +497,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -487,6 +506,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>20</t>
     </r>
@@ -500,6 +520,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -508,6 +529,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>128</t>
     </r>
@@ -521,6 +543,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -529,6 +552,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>True</t>
     </r>
@@ -542,6 +566,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -550,6 +575,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>True</t>
     </r>
@@ -563,6 +589,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -571,6 +598,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -587,6 +615,7 @@
         <i/>
         <sz val="13.5"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>#../pretrained/glove.6B.100d.txt"): ## "../pretrained/Gloved-GoogleNews-vectors-negative300.txt"):</t>
     </r>
@@ -627,6 +656,7 @@
         <sz val="13.5"/>
         <color rgb="FF9B703F"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>prepare_cnn_model_2</t>
     </r>
@@ -635,6 +665,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -643,6 +674,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>word_index</t>
     </r>
@@ -651,6 +683,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -659,6 +692,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>embedding_matrix</t>
     </r>
@@ -667,6 +701,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -675,6 +710,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
@@ -688,6 +724,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">embedding_layer </t>
     </r>
@@ -696,6 +733,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -704,6 +742,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Embedding(</t>
     </r>
@@ -712,6 +751,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>len</t>
     </r>
@@ -720,6 +760,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -728,6 +769,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>word_index</t>
     </r>
@@ -736,6 +778,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -744,6 +787,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -752,6 +796,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -760,6 +805,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -773,6 +819,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>EMBEDDING_DIM</t>
     </r>
@@ -781,6 +828,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -794,6 +842,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>weights</t>
     </r>
@@ -802,6 +851,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -810,6 +860,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -818,6 +869,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>embedding_matrix</t>
     </r>
@@ -826,6 +878,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
@@ -834,6 +887,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -847,6 +901,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>input_length</t>
     </r>
@@ -855,6 +910,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -863,6 +919,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>MAX_SEQUENCE_LENGTH</t>
     </r>
@@ -871,6 +928,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -884,6 +942,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>trainable</t>
     </r>
@@ -892,6 +951,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -900,6 +960,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>True</t>
     </r>
@@ -908,6 +969,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -921,6 +983,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -929,6 +992,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[]</t>
     </r>
@@ -942,6 +1006,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -950,6 +1015,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -958,6 +1024,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -966,6 +1033,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -974,6 +1042,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -982,6 +1051,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -990,6 +1060,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -998,6 +1069,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
@@ -1011,6 +1083,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1019,6 +1092,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Input(</t>
     </r>
@@ -1027,6 +1101,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>shape</t>
     </r>
@@ -1035,6 +1110,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1043,6 +1119,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>(MAX_SEQUENCE_LENGTH</t>
     </r>
@@ -1051,6 +1128,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1059,6 +1137,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1067,6 +1146,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1075,6 +1155,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>dtype</t>
     </r>
@@ -1083,6 +1164,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1091,6 +1173,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'int32'</t>
     </r>
@@ -1099,6 +1182,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1112,6 +1196,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1120,6 +1205,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>embedding_layer(sequence_input)</t>
     </r>
@@ -1133,6 +1219,7 @@
         <sz val="13.5"/>
         <color rgb="FFF9EE98"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">for </t>
     </r>
@@ -1141,6 +1228,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">fsz </t>
     </r>
@@ -1149,6 +1237,7 @@
         <sz val="13.5"/>
         <color rgb="FFF9EE98"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">in </t>
     </r>
@@ -1157,6 +1246,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>filter_sizes</t>
     </r>
@@ -1165,6 +1255,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1178,6 +1269,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">l_conv </t>
     </r>
@@ -1186,6 +1278,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1194,6 +1287,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Conv1D(</t>
     </r>
@@ -1202,6 +1296,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>nb_filter</t>
     </r>
@@ -1210,6 +1305,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1218,6 +1314,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>128</t>
     </r>
@@ -1226,6 +1323,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1234,6 +1332,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>filter_length</t>
     </r>
@@ -1242,6 +1341,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1250,6 +1350,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>fsz</t>
     </r>
@@ -1258,6 +1359,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1266,6 +1368,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -1274,6 +1377,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1282,6 +1386,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -1290,6 +1395,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(embedded_sequences)</t>
     </r>
@@ -1303,6 +1409,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1311,6 +1418,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>MaxPooling1D(</t>
     </r>
@@ -1319,6 +1427,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1327,6 +1436,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_conv)</t>
     </r>
@@ -1343,6 +1453,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1351,6 +1462,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Merge(</t>
     </r>
@@ -1359,6 +1471,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>mode</t>
     </r>
@@ -1367,6 +1480,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1375,6 +1489,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'concat'</t>
     </r>
@@ -1383,6 +1498,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1391,6 +1507,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>concat_axis</t>
     </r>
@@ -1399,6 +1516,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1407,6 +1525,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1415,6 +1534,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(convs)</t>
     </r>
@@ -1428,6 +1548,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1436,6 +1557,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Conv1D(</t>
     </r>
@@ -1444,6 +1566,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>128</t>
     </r>
@@ -1452,6 +1575,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1460,6 +1584,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1468,6 +1593,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1476,6 +1602,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -1484,6 +1611,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1492,6 +1620,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -1500,6 +1629,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_merge)</t>
     </r>
@@ -1513,6 +1643,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1521,6 +1652,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>MaxPooling1D(</t>
     </r>
@@ -1529,6 +1661,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1537,6 +1670,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_cov1)</t>
     </r>
@@ -1551,6 +1685,7 @@
         <sz val="13.5"/>
         <color rgb="FF5F5A60"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>#l_dropout1 = Dropout(0.5)(l_pool1)</t>
     </r>
@@ -1564,6 +1699,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">l_cov2 </t>
     </r>
@@ -1572,6 +1708,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1580,6 +1717,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Conv1D(</t>
     </r>
@@ -1588,6 +1726,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>128</t>
     </r>
@@ -1596,6 +1735,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1604,6 +1744,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1612,6 +1753,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1620,6 +1762,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -1628,6 +1771,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1636,6 +1780,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -1644,6 +1789,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_pool1)</t>
     </r>
@@ -1657,6 +1803,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1665,6 +1812,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>MaxPooling1D(</t>
     </r>
@@ -1673,6 +1821,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>30</t>
     </r>
@@ -1681,6 +1830,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_cov2)</t>
     </r>
@@ -1694,6 +1844,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1702,6 +1853,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Flatten()(l_pool2)</t>
     </r>
@@ -1715,6 +1867,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1723,6 +1876,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dense(</t>
     </r>
@@ -1731,6 +1885,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>128</t>
     </r>
@@ -1739,6 +1894,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1747,6 +1903,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -1755,6 +1912,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1763,6 +1921,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -1771,6 +1930,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1779,6 +1939,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>kernel_regularizer</t>
     </r>
@@ -1787,6 +1948,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1795,6 +1957,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>regularizers.l2(</t>
     </r>
@@ -1803,6 +1966,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>0.1</t>
     </r>
@@ -1811,6 +1975,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>))(l_flat)</t>
     </r>
@@ -1824,6 +1989,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1832,6 +1998,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dropout(</t>
     </r>
@@ -1840,6 +2007,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>0.5</t>
     </r>
@@ -1848,6 +2016,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_dense)</t>
     </r>
@@ -1861,6 +2030,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1869,6 +2039,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dense(CLASSES</t>
     </r>
@@ -1877,6 +2048,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1885,6 +2057,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -1893,6 +2066,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1901,6 +2075,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'softmax'</t>
     </r>
@@ -1909,6 +2084,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_dropout2)</t>
     </r>
@@ -1922,6 +2098,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -1930,6 +2107,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Model(sequence_input</t>
     </r>
@@ -1938,6 +2116,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1946,6 +2125,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>preds)</t>
     </r>
@@ -1959,6 +2139,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>loss</t>
     </r>
@@ -1967,6 +2148,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -1975,6 +2157,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'categorical_crossentropy'</t>
     </r>
@@ -1983,6 +2166,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1996,6 +2180,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>optimizer</t>
     </r>
@@ -2004,6 +2189,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2012,6 +2198,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'rmsprop'</t>
     </r>
@@ -2020,6 +2207,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2033,6 +2221,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>metrics</t>
     </r>
@@ -2041,6 +2230,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2049,6 +2239,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -2057,6 +2248,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'acc'</t>
     </r>
@@ -2065,6 +2257,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>])</t>
     </r>
@@ -2078,6 +2271,7 @@
         <sz val="13.5"/>
         <color rgb="FFF9EE98"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">return </t>
     </r>
@@ -2086,6 +2280,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>model</t>
     </r>
@@ -2288,6 +2483,7 @@
         <sz val="13.5"/>
         <color rgb="FF9B703F"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>prepare_cnn_model_1</t>
     </r>
@@ -2296,6 +2492,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2304,6 +2501,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>word_index</t>
     </r>
@@ -2312,6 +2510,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2320,6 +2519,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>embedding_matrix</t>
     </r>
@@ -2328,6 +2528,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2336,6 +2537,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
@@ -2349,6 +2551,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">embedding_layer </t>
     </r>
@@ -2357,6 +2560,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2365,6 +2569,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Embedding(</t>
     </r>
@@ -2373,6 +2578,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>len</t>
     </r>
@@ -2381,6 +2587,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2389,6 +2596,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>word_index</t>
     </r>
@@ -2397,6 +2605,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -2405,6 +2614,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
@@ -2413,6 +2623,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2421,6 +2632,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2434,6 +2646,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>EMBEDDING_DIM</t>
     </r>
@@ -2442,6 +2655,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2455,6 +2669,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>weights</t>
     </r>
@@ -2463,6 +2678,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2471,6 +2687,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -2479,6 +2696,7 @@
         <sz val="13.5"/>
         <color rgb="FF7587A6"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>embedding_matrix</t>
     </r>
@@ -2487,6 +2705,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
@@ -2495,6 +2714,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2508,6 +2728,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>input_length</t>
     </r>
@@ -2516,6 +2737,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2524,6 +2746,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>MAX_SEQUENCE_LENGTH</t>
     </r>
@@ -2532,6 +2755,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2545,6 +2769,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>trainable</t>
     </r>
@@ -2553,6 +2778,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2561,6 +2787,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>True</t>
     </r>
@@ -2569,6 +2796,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2582,6 +2810,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2590,6 +2819,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Input(</t>
     </r>
@@ -2598,6 +2828,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>shape</t>
     </r>
@@ -2606,6 +2837,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2614,6 +2846,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>(MAX_SEQUENCE_LENGTH</t>
     </r>
@@ -2622,6 +2855,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2630,6 +2864,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2638,6 +2873,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2646,6 +2882,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>dtype</t>
     </r>
@@ -2654,6 +2891,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2662,6 +2900,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'int32'</t>
     </r>
@@ -2670,6 +2909,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2683,6 +2923,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2691,6 +2932,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>embedding_layer(sequence_input)</t>
     </r>
@@ -2704,6 +2946,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2712,6 +2955,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Conv1D(</t>
     </r>
@@ -2720,6 +2964,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>64</t>
     </r>
@@ -2728,6 +2973,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2736,6 +2982,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -2744,6 +2991,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2752,6 +3000,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -2760,6 +3009,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2768,6 +3018,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -2776,6 +3027,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(embedded_sequences)</t>
     </r>
@@ -2789,6 +3041,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2797,6 +3050,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>MaxPooling1D()(l_cov1)</t>
     </r>
@@ -2811,6 +3065,7 @@
         <sz val="13.5"/>
         <color rgb="FF5F5A60"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>#l_dropout1 = Dropout(0.5)(l_pool1)</t>
     </r>
@@ -2830,6 +3085,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">l_flat </t>
     </r>
@@ -2838,6 +3094,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2846,6 +3103,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Flatten()(l_pool1)</t>
     </r>
@@ -2859,6 +3117,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2867,6 +3126,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dense(</t>
     </r>
@@ -2875,6 +3135,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>64</t>
     </r>
@@ -2883,6 +3144,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2891,6 +3153,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -2899,6 +3162,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2907,6 +3171,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -2915,6 +3180,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2923,6 +3189,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>kernel_regularizer</t>
     </r>
@@ -2931,6 +3198,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -2939,6 +3207,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>regularizers.l2(</t>
     </r>
@@ -2947,6 +3216,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>0.1</t>
     </r>
@@ -2955,6 +3225,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>))(l_flat)</t>
     </r>
@@ -2968,6 +3239,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -2976,6 +3248,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dropout(</t>
     </r>
@@ -2984,6 +3257,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>0.5</t>
     </r>
@@ -2992,6 +3266,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_dense)</t>
     </r>
@@ -3005,6 +3280,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3013,6 +3289,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dense(CLASSES</t>
     </r>
@@ -3021,6 +3298,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3029,6 +3307,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -3037,6 +3316,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -3045,6 +3325,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'softmax'</t>
     </r>
@@ -3053,6 +3334,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>)(l_dropout2)</t>
     </r>
@@ -3066,6 +3348,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3074,6 +3357,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Model(sequence_input</t>
     </r>
@@ -3082,6 +3366,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3090,6 +3375,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>preds)</t>
     </r>
@@ -3103,6 +3389,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>loss</t>
     </r>
@@ -3111,6 +3398,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -3119,6 +3407,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'categorical_crossentropy'</t>
     </r>
@@ -3127,6 +3416,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3140,6 +3430,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>optimizer</t>
     </r>
@@ -3148,6 +3439,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -3156,6 +3448,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'rmsprop'</t>
     </r>
@@ -3164,6 +3457,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3177,6 +3471,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>metrics</t>
     </r>
@@ -3185,6 +3480,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -3193,6 +3489,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -3201,6 +3498,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'acc'</t>
     </r>
@@ -3209,6 +3507,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>])</t>
     </r>
@@ -3222,6 +3521,7 @@
         <sz val="13.5"/>
         <color rgb="FFF9EE98"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">return </t>
     </r>
@@ -3230,6 +3530,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>model</t>
     </r>
@@ -3303,6 +3604,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3311,6 +3613,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>1000</t>
     </r>
@@ -3324,6 +3627,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3332,6 +3636,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>64</t>
     </r>
@@ -3345,6 +3650,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3353,6 +3659,7 @@
         <sz val="13.5"/>
         <color rgb="FFDAD085"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>False</t>
     </r>
@@ -3366,6 +3673,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3374,6 +3682,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -3387,6 +3696,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3395,6 +3705,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -3403,6 +3714,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -3411,6 +3723,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3419,6 +3732,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
@@ -3427,6 +3741,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3435,6 +3750,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -3443,6 +3759,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3456,6 +3773,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">= </t>
     </r>
@@ -3464,6 +3782,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>Dense(</t>
     </r>
@@ -3472,6 +3791,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>128</t>
     </r>
@@ -3480,6 +3800,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3488,6 +3809,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>activation</t>
     </r>
@@ -3496,6 +3818,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -3504,6 +3827,7 @@
         <sz val="13.5"/>
         <color rgb="FFA5C261"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>'relu'</t>
     </r>
@@ -3512,6 +3836,7 @@
         <sz val="13.5"/>
         <color rgb="FFCC7832"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -3520,6 +3845,7 @@
         <sz val="13.5"/>
         <color rgb="FFAA4926"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>kernel_regularizer</t>
     </r>
@@ -3528,6 +3854,7 @@
         <sz val="13.5"/>
         <color rgb="FFCDA869"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>=</t>
     </r>
@@ -3536,6 +3863,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>regularizers.l2(</t>
     </r>
@@ -3544,6 +3872,7 @@
         <sz val="13.5"/>
         <color rgb="FFCF6A4C"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>0.3</t>
     </r>
@@ -3552,6 +3881,7 @@
         <sz val="13.5"/>
         <color rgb="FFF8F8F8"/>
         <rFont val="Menlo"/>
+        <family val="2"/>
       </rPr>
       <t>))(l_flat)</t>
     </r>
@@ -3890,45 +4220,54 @@
       <sz val="13.5"/>
       <color rgb="FFF8F8F8"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFCDA869"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFCF6A4C"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFA5C261"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="13.5"/>
       <color rgb="FF5F5A60"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFDAD085"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="13.5"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3940,26 +4279,31 @@
       <sz val="13.5"/>
       <color rgb="FFF9EE98"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FF9B703F"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FF7587A6"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFCC7832"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13.5"/>
       <color rgb="FFAA4926"/>
       <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4519,11 +4863,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2140547288"/>
-        <c:axId val="-2141596504"/>
+        <c:axId val="1584903872"/>
+        <c:axId val="1343067216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140547288"/>
+        <c:axId val="1584903872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4566,7 +4910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141596504"/>
+        <c:crossAx val="1343067216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4574,7 +4918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141596504"/>
+        <c:axId val="1343067216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,7 +4969,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140547288"/>
+        <c:crossAx val="1584903872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4639,7 +4983,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5001,11 +5344,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2142943864"/>
-        <c:axId val="2142947480"/>
+        <c:axId val="1344975728"/>
+        <c:axId val="1345105952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142943864"/>
+        <c:axId val="1344975728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142947480"/>
+        <c:crossAx val="1345105952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5056,7 +5399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142947480"/>
+        <c:axId val="1345105952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,7 +5450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142943864"/>
+        <c:crossAx val="1344975728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5121,7 +5464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5531,11 +5873,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2142253784"/>
-        <c:axId val="2142257400"/>
+        <c:axId val="1342780656"/>
+        <c:axId val="1342782528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142253784"/>
+        <c:axId val="1342780656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5578,7 +5920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142257400"/>
+        <c:crossAx val="1342782528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5586,7 +5928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142257400"/>
+        <c:axId val="1342782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5637,7 +5979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142253784"/>
+        <c:crossAx val="1342780656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5964,11 +6306,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2142300056"/>
-        <c:axId val="2142303672"/>
+        <c:axId val="1342458816"/>
+        <c:axId val="1339712320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142300056"/>
+        <c:axId val="1342458816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6011,7 +6353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142303672"/>
+        <c:crossAx val="1339712320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6019,7 +6361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142303672"/>
+        <c:axId val="1339712320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,7 +6412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142300056"/>
+        <c:crossAx val="1342458816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6165,7 +6507,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6548,11 +6889,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2141283352"/>
-        <c:axId val="2141286968"/>
+        <c:axId val="1339374384"/>
+        <c:axId val="873552560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141283352"/>
+        <c:axId val="1339374384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6595,7 +6936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141286968"/>
+        <c:crossAx val="873552560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6603,7 +6944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141286968"/>
+        <c:axId val="873552560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6654,7 +6995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141283352"/>
+        <c:crossAx val="1339374384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6668,7 +7009,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7264,11 +7604,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2140624136"/>
-        <c:axId val="-2140620456"/>
+        <c:axId val="843806912"/>
+        <c:axId val="843808688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140624136"/>
+        <c:axId val="843806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7311,7 +7651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140620456"/>
+        <c:crossAx val="843808688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7319,7 +7659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140620456"/>
+        <c:axId val="843808688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7370,7 +7710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140624136"/>
+        <c:crossAx val="843806912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8015,11 +8355,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2140646648"/>
-        <c:axId val="-2140666456"/>
+        <c:axId val="843073728"/>
+        <c:axId val="843373664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140646648"/>
+        <c:axId val="843073728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8062,7 +8402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140666456"/>
+        <c:crossAx val="843373664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8070,7 +8410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140666456"/>
+        <c:axId val="843373664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8121,7 +8461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140646648"/>
+        <c:crossAx val="843073728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8658,11 +8998,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2140722440"/>
-        <c:axId val="-2140718760"/>
+        <c:axId val="1343995632"/>
+        <c:axId val="1584850624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140722440"/>
+        <c:axId val="1343995632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,7 +9045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140718760"/>
+        <c:crossAx val="1584850624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8713,7 +9053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2140718760"/>
+        <c:axId val="1584850624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8764,7 +9104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140722440"/>
+        <c:crossAx val="1343995632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13709,7 +14049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13723,12 +14063,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -13745,7 +14085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13762,7 +14102,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13779,7 +14119,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13796,7 +14136,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13813,7 +14153,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13830,7 +14170,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -13847,7 +14187,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -13864,7 +14204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -13881,7 +14221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -13898,7 +14238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -13915,7 +14255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -13932,7 +14272,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -13949,7 +14289,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -13966,7 +14306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -13983,7 +14323,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -14000,7 +14340,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -14017,7 +14357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -14034,7 +14374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14051,7 +14391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -14068,7 +14408,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -14103,7 +14443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -14138,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -14173,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -14208,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -14243,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R47">
         <v>176</v>
       </c>
@@ -14263,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>9</v>
       </c>
@@ -14277,7 +14617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -14294,7 +14634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -14315,11 +14655,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14328,10 +14663,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
@@ -14340,7 +14675,7 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>342</v>
       </c>
@@ -14353,7 +14688,7 @@
       </c>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>343</v>
       </c>
@@ -14370,7 +14705,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>356</v>
       </c>
@@ -14387,7 +14722,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>357</v>
       </c>
@@ -14404,45 +14739,63 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>358</v>
       </c>
       <c r="B5">
-        <v>0.54</v>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.56689999999999996</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>359</v>
       </c>
       <c r="B6">
-        <v>0.55000000000000004</v>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.55400000000000005</v>
       </c>
       <c r="D6">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.76619999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>360</v>
       </c>
       <c r="B7">
         <v>0.53</v>
       </c>
+      <c r="C7">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="D7">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.77239999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -14450,11 +14803,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14466,12 +14814,12 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -14494,7 +14842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -14517,7 +14865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -14540,7 +14888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -14563,7 +14911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14586,7 +14934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -14609,7 +14957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -14632,7 +14980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14655,7 +15003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -14678,7 +15026,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -14701,7 +15049,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -14724,7 +15072,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -14747,7 +15095,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -14770,7 +15118,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -14793,7 +15141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -14816,7 +15164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -14839,7 +15187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -14862,7 +15210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -14885,7 +15233,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -14908,7 +15256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -14934,11 +15282,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14950,9 +15293,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -14981,12 +15324,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -15016,7 +15359,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -15046,7 +15389,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -15076,7 +15419,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15106,7 +15449,7 @@
         <v>8033</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -15145,11 +15488,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15161,12 +15499,12 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="168.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -15207,7 +15545,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15248,7 +15586,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -15289,7 +15627,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -15330,7 +15668,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -15371,7 +15709,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -15412,7 +15750,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -15453,7 +15791,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -15494,7 +15832,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -15535,7 +15873,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -15576,7 +15914,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -15617,7 +15955,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -15658,7 +15996,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -15699,7 +16037,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15740,7 +16078,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -15781,7 +16119,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -15822,7 +16160,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -15863,7 +16201,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -15904,7 +16242,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -15945,7 +16283,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -15986,7 +16324,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -16027,7 +16365,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -16068,7 +16406,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -16109,7 +16447,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -16150,7 +16488,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -16191,7 +16529,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -16232,7 +16570,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -16273,7 +16611,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -16314,7 +16652,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -16355,7 +16693,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -16396,7 +16734,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.66618042171821257</v>
@@ -16422,185 +16760,185 @@
         <v>0.39809999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -16608,11 +16946,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16624,7 +16957,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="134.83203125" customWidth="1"/>
     <col min="8" max="9" width="46.1640625" customWidth="1"/>
@@ -16632,7 +16965,7 @@
     <col min="12" max="12" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -16673,7 +17006,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -16714,7 +17047,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -16755,7 +17088,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -16796,7 +17129,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -16837,7 +17170,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -16878,7 +17211,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -16919,7 +17252,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -16960,7 +17293,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -17001,7 +17334,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -17042,7 +17375,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -17083,7 +17416,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -17124,7 +17457,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -17165,7 +17498,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -17206,7 +17539,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -17247,7 +17580,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -17288,7 +17621,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -17329,7 +17662,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -17370,7 +17703,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -17411,7 +17744,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -17452,7 +17785,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -17493,7 +17826,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -17534,7 +17867,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -17575,7 +17908,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -17616,7 +17949,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -17657,7 +17990,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -17698,7 +18031,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -17739,7 +18072,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -17780,7 +18113,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -17821,7 +18154,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -17862,7 +18195,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.30563419885209575</v>
@@ -17888,211 +18221,211 @@
         <v>0.40310000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" ht="18">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18">
+    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
+    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18">
+    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18">
+    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18">
+    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>151</v>
       </c>
@@ -18100,11 +18433,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18116,12 +18444,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="111.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -18162,7 +18490,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -18203,7 +18531,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -18244,7 +18572,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18285,7 +18613,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -18326,7 +18654,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -18367,7 +18695,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -18408,7 +18736,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -18449,7 +18777,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -18490,7 +18818,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -18531,7 +18859,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.62768753695487889</v>
@@ -18557,7 +18885,7 @@
         <v>0.39339999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>0.23703261544633211</v>
@@ -18583,183 +18911,183 @@
         <v>2.298405244221886E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" ht="18">
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18">
+    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18">
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>236</v>
       </c>
@@ -18767,11 +19095,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18783,12 +19106,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="130.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -18829,7 +19152,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -18870,7 +19193,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -18911,7 +19234,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18952,7 +19275,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -18993,7 +19316,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -19034,7 +19357,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -19075,7 +19398,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -19116,7 +19439,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -19157,7 +19480,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -19198,7 +19521,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.14167151762715374</v>
@@ -19224,7 +19547,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>5.3834427733717834E-2</v>
@@ -19250,150 +19573,150 @@
         <v>2.1401194151521332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="18">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18">
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18">
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18">
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>151</v>
       </c>
@@ -19401,11 +19724,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -19417,17 +19735,17 @@
       <selection activeCell="K32" sqref="K32:M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -19438,7 +19756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19479,7 +19797,7 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -19520,7 +19838,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -19561,7 +19879,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -19602,7 +19920,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -19643,7 +19961,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -19654,7 +19972,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -19695,7 +20013,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -19736,7 +20054,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -19777,7 +20095,7 @@
         <v>0.6825</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -19818,7 +20136,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -19859,12 +20177,12 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -19875,7 +20193,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -19916,7 +20234,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -19957,7 +20275,7 @@
         <v>0.72875000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -19998,7 +20316,7 @@
         <v>0.73875000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -20039,7 +20357,7 @@
         <v>0.75124999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -20080,7 +20398,7 @@
         <v>0.74124999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K25">
         <f>AVERAGE(K20:K24)</f>
         <v>0.76600000000000001</v>
@@ -20094,7 +20412,7 @@
         <v>0.74049999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -20117,7 +20435,7 @@
         <v>8.0816149376222949E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -20158,7 +20476,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -20199,7 +20517,7 @@
         <v>0.73375000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -20240,7 +20558,7 @@
         <v>0.70625000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20281,7 +20599,7 @@
         <v>0.73250000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -20322,7 +20640,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K32">
         <f>AVERAGE(K27:K31)</f>
         <v>0.73599999999999999</v>
@@ -20336,7 +20654,7 @@
         <v>0.72350000000000003</v>
       </c>
     </row>
-    <row r="33" spans="11:13">
+    <row r="33" spans="11:13" x14ac:dyDescent="0.2">
       <c r="K33">
         <f>STDEV(K27:K31)</f>
         <v>1.0767427733679015E-2</v>
@@ -20353,11 +20671,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -20369,18 +20682,18 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.83203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -20436,7 +20749,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -20444,10 +20757,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="CNN1 1000" sheetId="6" r:id="rId6"/>
     <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
     <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
-    <sheet name="TF-IDF" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
+    <sheet name="binary extra" sheetId="11" r:id="rId9"/>
+    <sheet name="TF-IDF" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="393">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4179,6 +4180,102 @@
   </si>
   <si>
     <t>TF-IDF SVC</t>
+  </si>
+  <si>
+    <t>CNN 1 model:</t>
+  </si>
+  <si>
+    <t>CNN 2 model:</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 16 : [0.10360931873321533, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.7204475677013398, 0.77]</t>
+  </si>
+  <si>
+    <t>[0.803442873954773, 0.7375]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 19 : [0.16020009228161403, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.7711168563365937, 0.77]</t>
+  </si>
+  <si>
+    <t>[0.8235645294189453, 0.74375]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 15 : [0.13102907759802682, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.7690710926055908, 0.76]</t>
+  </si>
+  <si>
+    <t>[0.799694230556488, 0.735]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 14 : [0.1286380693742207, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.739014436006546, 0.75625]</t>
+  </si>
+  <si>
+    <t>[0.7659110426902771, 0.74625]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 13 : [0.16592042693070003, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.7652655279636383, 0.76375]</t>
+  </si>
+  <si>
+    <t>[0.7834830844402313, 0.7475]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 16 : [0.022870092482439108, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.8932331466674804, 0.7375]</t>
+  </si>
+  <si>
+    <t>[0.9303717708587647, 0.71625]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 10 : [0.06033183059522084, 0.9942857142857143]</t>
+  </si>
+  <si>
+    <t>[0.7692045044898986, 0.73]</t>
+  </si>
+  <si>
+    <t>[0.7739324069023132, 0.71875]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 12 : [0.026289071972881044, 0.9967857142857143]</t>
+  </si>
+  <si>
+    <t>[1.1035455417633058, 0.73625]</t>
+  </si>
+  <si>
+    <t>[1.150442715883255, 0.715]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 15 : [0.02318094883646284, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[0.921134819984436, 0.73125]</t>
+  </si>
+  <si>
+    <t>[0.945082014799118, 0.73125]</t>
+  </si>
+  <si>
+    <t>Best accuracy found at epoch 17 : [0.02062257977468627, 0.9982142857142857]</t>
+  </si>
+  <si>
+    <t>[1.0735913491249085, 0.74625]</t>
+  </si>
+  <si>
+    <t>[1.1316575944423675, 0.7175]</t>
   </si>
 </sst>
 </file>
@@ -14660,9 +14757,95 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>337</v>
+      </c>
+      <c r="R3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -19729,15 +19912,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:M33"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="18" max="18" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -20177,303 +20361,20 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>296</v>
-      </c>
-    </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+        <v>273</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I20">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J20" t="s">
-        <v>298</v>
-      </c>
-      <c r="K20">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="L20" t="s">
-        <v>299</v>
-      </c>
-      <c r="M20">
-        <v>0.74250000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>300</v>
-      </c>
-      <c r="I21">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J21" t="s">
-        <v>301</v>
-      </c>
-      <c r="K21">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="L21" t="s">
-        <v>302</v>
-      </c>
-      <c r="M21">
-        <v>0.72875000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J22" t="s">
-        <v>304</v>
-      </c>
-      <c r="K22">
-        <v>0.76124999999999998</v>
-      </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-      <c r="M22">
-        <v>0.73875000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>306</v>
-      </c>
-      <c r="I23">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J23" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="L23" t="s">
-        <v>308</v>
-      </c>
-      <c r="M23">
-        <v>0.75124999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>309</v>
-      </c>
-      <c r="I24">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J24" t="s">
-        <v>310</v>
-      </c>
-      <c r="K24">
-        <v>0.77124999999999999</v>
-      </c>
-      <c r="L24" t="s">
-        <v>311</v>
-      </c>
-      <c r="M24">
-        <v>0.74124999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K25">
-        <f>AVERAGE(K20:K24)</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="L25" t="e">
-        <f t="shared" ref="L25:M25" si="0">AVERAGE(L20:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
-        <v>0.74049999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
         <v>274</v>
-      </c>
-      <c r="K26">
-        <f>STDEV(K20:K24)</f>
-        <v>6.4590053413819126E-3</v>
-      </c>
-      <c r="L26" t="e">
-        <f t="shared" ref="L26:M26" si="1">STDEV(L20:L24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>8.0816149376222949E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>312</v>
-      </c>
-      <c r="I27">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J27" t="s">
-        <v>313</v>
-      </c>
-      <c r="K27">
-        <v>0.72375</v>
-      </c>
-      <c r="L27" t="s">
-        <v>314</v>
-      </c>
-      <c r="M27">
-        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -20493,28 +20394,28 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="I28">
-        <v>0.996428571428571</v>
+        <v>0.99821428571428505</v>
       </c>
       <c r="J28" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="K28">
-        <v>0.72875000000000001</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="L28" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="M28">
-        <v>0.73375000000000001</v>
+        <v>0.74250000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -20534,28 +20435,28 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="I29">
-        <v>0.997857142857142</v>
+        <v>0.99821428571428505</v>
       </c>
       <c r="J29" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="K29">
-        <v>0.73375000000000001</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="L29" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="M29">
-        <v>0.70625000000000004</v>
+        <v>0.72875000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -20575,28 +20476,28 @@
         <v>39</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="I30">
-        <v>0.997857142857142</v>
+        <v>0.99821428571428505</v>
       </c>
       <c r="J30" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K30">
-        <v>0.74375000000000002</v>
+        <v>0.76124999999999998</v>
       </c>
       <c r="L30" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="M30">
-        <v>0.73250000000000004</v>
+        <v>0.73875000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -20616,54 +20517,339 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
       </c>
       <c r="H31" t="s">
+        <v>306</v>
+      </c>
+      <c r="I31">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J31" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="L31" t="s">
+        <v>308</v>
+      </c>
+      <c r="M31">
+        <v>0.75124999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J32" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32">
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="L32" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32">
+        <v>0.74124999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <f>AVERAGE(K28:K32)</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L33" t="e">
+        <f t="shared" ref="L33:M33" si="0">AVERAGE(L28:L32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>0.74049999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f>STDEV(K28:K32)</f>
+        <v>6.4590053413819126E-3</v>
+      </c>
+      <c r="L34" t="e">
+        <f t="shared" ref="L34:M34" si="1">STDEV(L28:L32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>8.0816149376222949E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>312</v>
+      </c>
+      <c r="I36">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36">
+        <v>0.72375</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37">
+        <v>0.996428571428571</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37">
+        <v>0.72875000000000001</v>
+      </c>
+      <c r="L37" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>318</v>
+      </c>
+      <c r="I38">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38">
+        <v>0.73375000000000001</v>
+      </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>321</v>
+      </c>
+      <c r="I39">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="L39" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39">
+        <v>0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
         <v>324</v>
       </c>
-      <c r="I31">
+      <c r="I40">
         <v>0.99678571428571405</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J40" t="s">
         <v>325</v>
       </c>
-      <c r="K31">
+      <c r="K40">
         <v>0.75</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L40" t="s">
         <v>326</v>
       </c>
-      <c r="M31">
+      <c r="M40">
         <v>0.73</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K32">
-        <f>AVERAGE(K27:K31)</f>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <f>AVERAGE(K36:K40)</f>
         <v>0.73599999999999999</v>
       </c>
-      <c r="L32" t="e">
-        <f t="shared" ref="L32:M32" si="2">AVERAGE(L27:L31)</f>
+      <c r="L41" t="e">
+        <f t="shared" ref="L41:M41" si="2">AVERAGE(L36:L40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32">
+      <c r="M41">
         <f t="shared" si="2"/>
         <v>0.72350000000000003</v>
       </c>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K33">
-        <f>STDEV(K27:K31)</f>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <f>STDEV(K36:K40)</f>
         <v>1.0767427733679015E-2</v>
       </c>
-      <c r="L33" t="e">
-        <f t="shared" ref="L33:M33" si="3">STDEV(L27:L31)</f>
+      <c r="L42" t="e">
+        <f t="shared" ref="L42:M42" si="3">STDEV(L36:L40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33">
+      <c r="M42">
         <f t="shared" si="3"/>
         <v>1.2228297101395596E-2</v>
       </c>
@@ -20676,86 +20862,139 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" t="s">
-        <v>337</v>
-      </c>
-      <c r="P3" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftorabia/workspace/shared/sfu/fake_news/data/buzzfeed-debunk-combined/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="35760" windowHeight="15780" tabRatio="500" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -20,24 +15,23 @@
     <sheet name="CNN1 1000" sheetId="6" r:id="rId6"/>
     <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
     <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
-    <sheet name="binary extra" sheetId="11" r:id="rId9"/>
-    <sheet name="TF-IDF" sheetId="9" r:id="rId10"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId11"/>
+    <sheet name="TF-IDF" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="391">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4143,36 +4137,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>0.3878 (0.0167)</t>
-  </si>
-  <si>
-    <t>0.3934 (0.0229)</t>
-  </si>
-  <si>
-    <t>0.4007 (0.0164)</t>
-  </si>
-  <si>
-    <t>0.4027 (0.0214)</t>
-  </si>
-  <si>
-    <t>0.766 (0.0064)</t>
-  </si>
-  <si>
-    <t>0.7405 (0.0080)</t>
-  </si>
-  <si>
-    <t>0.736 (0.0107)</t>
-  </si>
-  <si>
-    <t>0.7235 (0.0122)</t>
-  </si>
-  <si>
-    <t>CNN small</t>
-  </si>
-  <si>
-    <t>CNN big</t>
-  </si>
-  <si>
     <t>TF-IDF NB</t>
   </si>
   <si>
@@ -4182,100 +4146,124 @@
     <t>TF-IDF SVC</t>
   </si>
   <si>
-    <t>CNN 1 model:</t>
-  </si>
-  <si>
-    <t>CNN 2 model:</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 16 : [0.10360931873321533, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.7204475677013398, 0.77]</t>
-  </si>
-  <si>
-    <t>[0.803442873954773, 0.7375]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 19 : [0.16020009228161403, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.7711168563365937, 0.77]</t>
-  </si>
-  <si>
-    <t>[0.8235645294189453, 0.74375]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 15 : [0.13102907759802682, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.7690710926055908, 0.76]</t>
-  </si>
-  <si>
-    <t>[0.799694230556488, 0.735]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 14 : [0.1286380693742207, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.739014436006546, 0.75625]</t>
-  </si>
-  <si>
-    <t>[0.7659110426902771, 0.74625]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 13 : [0.16592042693070003, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.7652655279636383, 0.76375]</t>
-  </si>
-  <si>
-    <t>[0.7834830844402313, 0.7475]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 16 : [0.022870092482439108, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.8932331466674804, 0.7375]</t>
-  </si>
-  <si>
-    <t>[0.9303717708587647, 0.71625]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 10 : [0.06033183059522084, 0.9942857142857143]</t>
-  </si>
-  <si>
-    <t>[0.7692045044898986, 0.73]</t>
-  </si>
-  <si>
-    <t>[0.7739324069023132, 0.71875]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 12 : [0.026289071972881044, 0.9967857142857143]</t>
-  </si>
-  <si>
-    <t>[1.1035455417633058, 0.73625]</t>
-  </si>
-  <si>
-    <t>[1.150442715883255, 0.715]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 15 : [0.02318094883646284, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[0.921134819984436, 0.73125]</t>
-  </si>
-  <si>
-    <t>[0.945082014799118, 0.73125]</t>
-  </si>
-  <si>
-    <t>Best accuracy found at epoch 17 : [0.02062257977468627, 0.9982142857142857]</t>
-  </si>
-  <si>
-    <t>[1.0735913491249085, 0.74625]</t>
-  </si>
-  <si>
-    <t>[1.1316575944423675, 0.7175]</t>
+    <t>CNN Small</t>
+  </si>
+  <si>
+    <t>CNN Big</t>
+  </si>
+  <si>
+    <t>[0.14496239491871424,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.8551368570327759,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.8861458843946457,</t>
+  </si>
+  <si>
+    <t>[0.11973129123449326,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7647168278694153,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.8330988907814025,</t>
+  </si>
+  <si>
+    <t>[0.17414900626455035,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7497432732582092,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7577084124088287,</t>
+  </si>
+  <si>
+    <t>[0.1028599567924227,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.8019301402568817,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.8105601477622986,</t>
+  </si>
+  <si>
+    <t>[0.25301406451634,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7654297804832458,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7884656691551208,</t>
+  </si>
+  <si>
+    <t>[0.11283717274665833,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7584465193748474,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.7760441517829895,</t>
+  </si>
+  <si>
+    <t>[0.018152133822441102,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[1.0568349862098694,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[1.115705941915512,</t>
+  </si>
+  <si>
+    <t>[0.019730714123163906,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[1.0516475224494934,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[1.1214235043525695,</t>
+  </si>
+  <si>
+    <t>[0.02174693795719317,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.964295266866684,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.95325035572052,</t>
+  </si>
+  <si>
+    <t>[0.025900740272232464,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[0.9296354305744171,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[1.004252825975418,</t>
+  </si>
+  <si>
+    <t>74.04 (0.80)</t>
+  </si>
+  <si>
+    <t>72.35 (1.18)</t>
+  </si>
+  <si>
+    <t>76.25 (0.65)</t>
+  </si>
+  <si>
+    <t>73.70 (1.00)</t>
+  </si>
+  <si>
+    <t>39.34 (2.29)</t>
+  </si>
+  <si>
+    <t>40.27 (2.14)</t>
+  </si>
+  <si>
+    <t>38.78 (1.67)</t>
+  </si>
+  <si>
+    <t>40.07 (1.64)</t>
   </si>
 </sst>
 </file>
@@ -4450,7 +4438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4524,8 +4512,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4579,8 +4593,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4617,6 +4634,19 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4653,6 +4683,19 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4960,11 +5003,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1584903872"/>
-        <c:axId val="1343067216"/>
+        <c:axId val="-2133879608"/>
+        <c:axId val="-2134445096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1584903872"/>
+        <c:axId val="-2133879608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5007,7 +5050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1343067216"/>
+        <c:crossAx val="-2134445096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5015,7 +5058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1343067216"/>
+        <c:axId val="-2134445096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584903872"/>
+        <c:crossAx val="-2133879608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5441,11 +5484,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1344975728"/>
-        <c:axId val="1345105952"/>
+        <c:axId val="-2134066072"/>
+        <c:axId val="-2134036600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1344975728"/>
+        <c:axId val="-2134066072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5488,7 +5531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1345105952"/>
+        <c:crossAx val="-2134036600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5496,7 +5539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1345105952"/>
+        <c:axId val="-2134036600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,7 +5590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1344975728"/>
+        <c:crossAx val="-2134066072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5970,11 +6013,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1342780656"/>
-        <c:axId val="1342782528"/>
+        <c:axId val="-2133870824"/>
+        <c:axId val="-2133874520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1342780656"/>
+        <c:axId val="-2133870824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6017,7 +6060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342782528"/>
+        <c:crossAx val="-2133874520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6025,7 +6068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342782528"/>
+        <c:axId val="-2133874520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6076,7 +6119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342780656"/>
+        <c:crossAx val="-2133870824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6403,11 +6446,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1342458816"/>
-        <c:axId val="1339712320"/>
+        <c:axId val="-2136146792"/>
+        <c:axId val="-2136155032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1342458816"/>
+        <c:axId val="-2136146792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6450,7 +6493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339712320"/>
+        <c:crossAx val="-2136155032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6458,7 +6501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339712320"/>
+        <c:axId val="-2136155032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6509,7 +6552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342458816"/>
+        <c:crossAx val="-2136146792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6986,11 +7029,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339374384"/>
-        <c:axId val="873552560"/>
+        <c:axId val="-2136030824"/>
+        <c:axId val="-2136719832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339374384"/>
+        <c:axId val="-2136030824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7033,7 +7076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873552560"/>
+        <c:crossAx val="-2136719832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7041,7 +7084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873552560"/>
+        <c:axId val="-2136719832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,7 +7135,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339374384"/>
+        <c:crossAx val="-2136030824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7701,11 +7744,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="843806912"/>
-        <c:axId val="843808688"/>
+        <c:axId val="-2132969608"/>
+        <c:axId val="-2132965928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="843806912"/>
+        <c:axId val="-2132969608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7748,7 +7791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843808688"/>
+        <c:crossAx val="-2132965928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7756,7 +7799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843808688"/>
+        <c:axId val="-2132965928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7807,7 +7850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843806912"/>
+        <c:crossAx val="-2132969608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8452,11 +8495,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="843073728"/>
-        <c:axId val="843373664"/>
+        <c:axId val="-2133899560"/>
+        <c:axId val="-2133898152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="843073728"/>
+        <c:axId val="-2133899560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8499,7 +8542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843373664"/>
+        <c:crossAx val="-2133898152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8507,7 +8550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843373664"/>
+        <c:axId val="-2133898152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8558,7 +8601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843073728"/>
+        <c:crossAx val="-2133899560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9095,11 +9138,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1343995632"/>
-        <c:axId val="1584850624"/>
+        <c:axId val="-2132910200"/>
+        <c:axId val="-2132906520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1343995632"/>
+        <c:axId val="-2132910200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9142,7 +9185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584850624"/>
+        <c:crossAx val="-2132906520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9150,7 +9193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1584850624"/>
+        <c:axId val="-2132906520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9201,7 +9244,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1343995632"/>
+        <c:crossAx val="-2132910200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14146,7 +14189,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14160,12 +14203,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -14182,7 +14225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14199,7 +14242,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14216,7 +14259,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14233,7 +14276,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14250,7 +14293,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14267,7 +14310,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14284,7 +14327,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14301,7 +14344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14318,7 +14361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -14335,7 +14378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -14352,7 +14395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -14369,7 +14412,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14386,7 +14429,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -14403,7 +14446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -14420,7 +14463,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -14437,7 +14480,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -14454,7 +14497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -14471,7 +14514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14488,7 +14531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -14505,7 +14548,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -14540,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -14575,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -14610,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -14645,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -14680,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="R47">
         <v>176</v>
       </c>
@@ -14700,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="B65" t="s">
         <v>9</v>
       </c>
@@ -14714,7 +14757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -14731,7 +14774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -14752,104 +14795,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" t="s">
-        <v>337</v>
-      </c>
-      <c r="P3" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="55.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
@@ -14858,7 +14820,7 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
         <v>342</v>
       </c>
@@ -14871,7 +14833,7 @@
       </c>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>343</v>
       </c>
@@ -14888,104 +14850,122 @@
         <v>347</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="21">
+        <v>55.500000000000007</v>
+      </c>
+      <c r="C5" s="21">
+        <v>56.69</v>
+      </c>
+      <c r="D5" s="21">
+        <v>78.5</v>
+      </c>
+      <c r="E5" s="21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>349</v>
       </c>
-      <c r="D3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" s="21">
+        <v>53.7</v>
+      </c>
+      <c r="C6" s="21">
+        <v>55.400000000000006</v>
+      </c>
+      <c r="D6" s="21">
+        <v>79.62</v>
+      </c>
+      <c r="E6" s="21">
+        <v>76.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>350</v>
       </c>
-      <c r="C4" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B5">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="C5">
-        <v>0.56689999999999996</v>
-      </c>
-      <c r="D5">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E5">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B6">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="C6">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="D6">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.76619999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7">
-        <v>0.53</v>
-      </c>
-      <c r="C7">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="D7">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E7">
-        <v>0.77239999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="21">
+        <v>53</v>
+      </c>
+      <c r="C7" s="21">
+        <v>54.500000000000007</v>
+      </c>
+      <c r="D7" s="21">
+        <v>78.5</v>
+      </c>
+      <c r="E7" s="21">
+        <v>77.239999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14997,12 +14977,12 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -15025,7 +15005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15048,7 +15028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -15071,7 +15051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -15094,7 +15074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -15117,7 +15097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -15140,7 +15120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -15163,7 +15143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -15186,7 +15166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -15209,7 +15189,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -15232,7 +15212,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -15255,7 +15235,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -15278,7 +15258,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -15301,7 +15281,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -15324,7 +15304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -15347,7 +15327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -15370,7 +15350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -15393,7 +15373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -15416,7 +15396,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -15439,7 +15419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -15465,6 +15445,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15476,9 +15461,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -15507,12 +15492,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -15542,7 +15527,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -15572,7 +15557,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -15602,7 +15587,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15632,7 +15617,7 @@
         <v>8033</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -15671,6 +15656,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15682,12 +15672,12 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="168.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -15728,7 +15718,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15769,7 +15759,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -15810,7 +15800,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -15851,7 +15841,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -15892,7 +15882,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -15933,7 +15923,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -15974,7 +15964,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -16015,7 +16005,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -16056,7 +16046,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -16097,7 +16087,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -16138,7 +16128,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -16179,7 +16169,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -16220,7 +16210,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -16261,7 +16251,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -16302,7 +16292,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -16343,7 +16333,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -16384,7 +16374,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -16425,7 +16415,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -16466,7 +16456,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -16507,7 +16497,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -16548,7 +16538,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -16589,7 +16579,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -16630,7 +16620,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -16671,7 +16661,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -16712,7 +16702,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -16753,7 +16743,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -16794,7 +16784,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -16835,7 +16825,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -16876,7 +16866,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -16917,7 +16907,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.66618042171821257</v>
@@ -16943,185 +16933,185 @@
         <v>0.39809999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -17129,6 +17119,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -17140,7 +17135,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="134.83203125" customWidth="1"/>
     <col min="8" max="9" width="46.1640625" customWidth="1"/>
@@ -17148,7 +17143,7 @@
     <col min="12" max="12" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -17189,7 +17184,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -17230,7 +17225,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -17271,7 +17266,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -17312,7 +17307,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -17353,7 +17348,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -17394,7 +17389,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -17435,7 +17430,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -17476,7 +17471,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -17517,7 +17512,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -17558,7 +17553,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -17599,7 +17594,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -17640,7 +17635,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -17681,7 +17676,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -17722,7 +17717,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -17763,7 +17758,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -17804,7 +17799,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -17845,7 +17840,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -17886,7 +17881,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -17927,7 +17922,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -17968,7 +17963,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -18009,7 +18004,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -18050,7 +18045,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -18091,7 +18086,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -18132,7 +18127,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -18173,7 +18168,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -18214,7 +18209,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -18255,7 +18250,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -18296,7 +18291,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -18337,7 +18332,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -18378,7 +18373,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.30563419885209575</v>
@@ -18404,211 +18399,211 @@
         <v>0.40310000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="18">
       <c r="A75" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="18">
       <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="18">
       <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="16" t="s">
         <v>151</v>
       </c>
@@ -18616,6 +18611,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18627,12 +18627,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="111.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -18755,7 +18755,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18796,7 +18796,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.62768753695487889</v>
@@ -19068,7 +19068,7 @@
         <v>0.39339999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>0.23703261544633211</v>
@@ -19094,183 +19094,183 @@
         <v>2.298405244221886E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="19"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="19"/>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="19"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="19"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="19"/>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="18">
       <c r="A48" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="16" t="s">
         <v>236</v>
       </c>
@@ -19278,6 +19278,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19289,12 +19294,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="130.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -19335,7 +19340,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -19376,7 +19381,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -19417,7 +19422,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19458,7 +19463,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -19499,7 +19504,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -19540,7 +19545,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -19581,7 +19586,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -19622,7 +19627,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -19663,7 +19668,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -19704,7 +19709,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.14167151762715374</v>
@@ -19730,7 +19735,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>5.3834427733717834E-2</v>
@@ -19756,150 +19761,150 @@
         <v>2.1401194151521332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18">
       <c r="A16" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="18">
       <c r="A17" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="18">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="18">
       <c r="A30" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="18">
       <c r="A31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="18">
       <c r="A33" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="16" t="s">
         <v>151</v>
       </c>
@@ -19907,29 +19912,34 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
     <col min="18" max="18" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -19940,7 +19950,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19981,7 +19991,7 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -20022,7 +20032,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -20063,7 +20073,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20104,7 +20114,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -20145,7 +20155,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -20156,7 +20166,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -20197,7 +20207,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -20238,7 +20248,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -20279,7 +20289,7 @@
         <v>0.6825</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -20320,7 +20330,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -20361,12 +20371,12 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -20377,7 +20387,294 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>354</v>
+      </c>
+      <c r="K21">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="L21" t="s">
+        <v>355</v>
+      </c>
+      <c r="M21">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>356</v>
+      </c>
+      <c r="I22">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J22" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22">
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="L22" t="s">
+        <v>358</v>
+      </c>
+      <c r="M22">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>359</v>
+      </c>
+      <c r="I23">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J23" t="s">
+        <v>360</v>
+      </c>
+      <c r="K23">
+        <v>0.755</v>
+      </c>
+      <c r="L23" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>362</v>
+      </c>
+      <c r="I24">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J24" t="s">
+        <v>363</v>
+      </c>
+      <c r="K24">
+        <v>0.755</v>
+      </c>
+      <c r="L24" t="s">
+        <v>364</v>
+      </c>
+      <c r="M24">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>365</v>
+      </c>
+      <c r="I25">
+        <v>0.997142857142857</v>
+      </c>
+      <c r="J25" t="s">
+        <v>366</v>
+      </c>
+      <c r="K25">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="L25" t="s">
+        <v>367</v>
+      </c>
+      <c r="M25">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="L26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J27" t="s">
+        <v>301</v>
+      </c>
+      <c r="K27">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="L27" t="s">
+        <v>302</v>
+      </c>
+      <c r="M27">
+        <v>0.72875000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -20400,25 +20697,25 @@
         <v>40</v>
       </c>
       <c r="H28" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I28">
         <v>0.99821428571428505</v>
       </c>
       <c r="J28" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K28">
-        <v>0.76749999999999996</v>
+        <v>0.76124999999999998</v>
       </c>
       <c r="L28" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M28">
-        <v>0.74250000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.73875000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -20435,31 +20732,31 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I29">
-        <v>0.99821428571428505</v>
+        <v>0.997857142857142</v>
       </c>
       <c r="J29" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K29">
-        <v>0.77249999999999996</v>
+        <v>0.75749999999999995</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M29">
-        <v>0.72875000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.75124999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20482,135 +20779,53 @@
         <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I30">
         <v>0.99821428571428505</v>
       </c>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K30">
-        <v>0.76124999999999998</v>
+        <v>0.77124999999999999</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M30">
-        <v>0.73875000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>306</v>
-      </c>
-      <c r="I31">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J31" t="s">
-        <v>307</v>
-      </c>
+        <v>0.74124999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="K31">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="L31" t="s">
-        <v>308</v>
+        <f>AVERAGE(K21:K30)</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" ref="L31:M31" si="0">AVERAGE(L21:L30)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M31">
-        <v>0.75124999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>309</v>
-      </c>
-      <c r="I32">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J32" t="s">
-        <v>310</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0.74037500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="K32">
-        <v>0.77124999999999999</v>
-      </c>
-      <c r="L32" t="s">
-        <v>311</v>
+        <f>STDEV(K21:K30)</f>
+        <v>6.5085413965888751E-3</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" ref="L32:M32" si="1">STDEV(L26:L30)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M32">
-        <v>0.74124999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K33">
-        <f>AVERAGE(K28:K32)</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="L33" t="e">
-        <f t="shared" ref="L33:M33" si="0">AVERAGE(L28:L32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>0.74049999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K34">
-        <f>STDEV(K28:K32)</f>
-        <v>6.4590053413819126E-3</v>
-      </c>
-      <c r="L34" t="e">
-        <f t="shared" ref="L34:M34" si="1">STDEV(L28:L32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34">
         <f t="shared" si="1"/>
         <v>8.0816149376222949E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>273</v>
       </c>
@@ -20621,7 +20836,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -20638,31 +20853,31 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="I36">
-        <v>0.99821428571428505</v>
+        <v>0.97892857142857104</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="K36">
-        <v>0.72375</v>
+        <v>0.73</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="M36">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -20679,31 +20894,31 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="I37">
-        <v>0.996428571428571</v>
+        <v>0.997857142857142</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="K37">
-        <v>0.72875000000000001</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="L37" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="M37">
-        <v>0.73375000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.73624999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -20720,31 +20935,31 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="I38">
-        <v>0.997857142857142</v>
+        <v>0.997142857142857</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="K38">
-        <v>0.73375000000000001</v>
+        <v>0.72624999999999995</v>
       </c>
       <c r="L38" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M38">
-        <v>0.70625000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -20761,31 +20976,31 @@
         <v>39</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s">
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>321</v>
+        <v>377</v>
       </c>
       <c r="I39">
         <v>0.997857142857142</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="K39">
-        <v>0.74375000000000002</v>
+        <v>0.74</v>
       </c>
       <c r="L39" t="s">
-        <v>323</v>
+        <v>379</v>
       </c>
       <c r="M39">
-        <v>0.73250000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -20802,199 +21017,628 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
         <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="I40">
-        <v>0.99678571428571405</v>
+        <v>0.99821428571428505</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="K40">
-        <v>0.75</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="L40" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="M40">
         <v>0.73</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>312</v>
+      </c>
+      <c r="I41">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
       <c r="K41">
-        <f>AVERAGE(K36:K40)</f>
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="L41" t="e">
-        <f t="shared" ref="L41:M41" si="2">AVERAGE(L36:L40)</f>
+        <v>0.72375</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
+      </c>
+      <c r="M41">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42">
+        <v>0.996428571428571</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42">
+        <v>0.72875000000000001</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>318</v>
+      </c>
+      <c r="I43">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43">
+        <v>0.73375000000000001</v>
+      </c>
+      <c r="L43" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>321</v>
+      </c>
+      <c r="I44">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K44">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44">
+        <v>0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>324</v>
+      </c>
+      <c r="I45">
+        <v>0.99678571428571405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45">
+        <v>0.75</v>
+      </c>
+      <c r="L45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="K46">
+        <f>AVERAGE(K36:K45)</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" ref="L46:M46" si="2">AVERAGE(L36:L45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41">
+      <c r="M46">
         <f t="shared" si="2"/>
-        <v>0.72350000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K42">
-        <f>STDEV(K36:K40)</f>
-        <v>1.0767427733679015E-2</v>
-      </c>
-      <c r="L42" t="e">
-        <f t="shared" ref="L42:M42" si="3">STDEV(L36:L40)</f>
+        <v>0.72262500000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="K47">
+        <f>STDEV(K36:K45)</f>
+        <v>1.000347161961508E-2</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" ref="L47:M47" si="3">STDEV(L36:L45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42">
+      <c r="M47">
         <f t="shared" si="3"/>
-        <v>1.2228297101395596E-2</v>
+        <v>1.1835827201997986E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="12"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="19"/>
+    </row>
+    <row r="54" spans="1:1" ht="18">
+      <c r="A54" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18">
+      <c r="A55" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18">
+      <c r="A56" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18">
+      <c r="A57" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18">
+      <c r="A58" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18">
+      <c r="A59" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18">
+      <c r="A60" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18">
+      <c r="A61" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18">
+      <c r="A62" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18">
+      <c r="A63" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18">
+      <c r="A64" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18">
+      <c r="A65" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18">
+      <c r="A66" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18">
+      <c r="A67" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18">
+      <c r="A68" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18">
+      <c r="A69" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18">
+      <c r="A70" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18">
+      <c r="A71" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18">
+      <c r="A72" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18">
+      <c r="A73" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18">
+      <c r="A74" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18">
+      <c r="A75" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="19"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="19"/>
+    </row>
+    <row r="78" spans="1:1" ht="18">
+      <c r="A78" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18">
+      <c r="A79" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18">
+      <c r="A80" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18">
+      <c r="A81" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18">
+      <c r="A82" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18">
+      <c r="A83" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18">
+      <c r="A84" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18">
+      <c r="A85" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18">
+      <c r="A86" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18">
+      <c r="A87" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18">
+      <c r="A88" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18">
+      <c r="A89" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18">
+      <c r="A90" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18">
+      <c r="A92" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18">
+      <c r="A93" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18">
+      <c r="A94" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18">
+      <c r="A95" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18">
+      <c r="A96" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18">
+      <c r="A97" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18">
+      <c r="A98" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18">
+      <c r="A99" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18">
+      <c r="A100" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18">
+      <c r="A101" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18">
+      <c r="A102" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18">
+      <c r="A103" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18">
+      <c r="A104" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18">
+      <c r="A105" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18">
+      <c r="A106" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A2:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="62.6640625" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K3" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>337</v>
+      </c>
+      <c r="R3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>378</v>
-      </c>
-      <c r="B9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>384</v>
-      </c>
-      <c r="B11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B12" t="s">
-        <v>388</v>
-      </c>
-      <c r="C12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C13" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftorabia/workspace/shared/sfu/fake_news/data/buzzfeed-debunk-combined/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="35760" windowHeight="15780" tabRatio="500" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -15,23 +20,23 @@
     <sheet name="CNN1 1000" sheetId="6" r:id="rId6"/>
     <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
     <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
-    <sheet name="TF-IDF" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId10"/>
+    <sheet name="TF-IDF" sheetId="11" r:id="rId9"/>
+    <sheet name="Results Table" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="379">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4074,51 +4079,6 @@
     <t xml:space="preserve">	[0.9914282417297363,</t>
   </si>
   <si>
-    <t>[('LinearSVC',</t>
-  </si>
-  <si>
-    <t>0.99928571428571433,</t>
-  </si>
-  <si>
-    <t>0.745,</t>
-  </si>
-  <si>
-    <t>0.74747474747474751,</t>
-  </si>
-  <si>
-    <t>0.74436090225563922),</t>
-  </si>
-  <si>
-    <t>('SGDClassifier',</t>
-  </si>
-  <si>
-    <t>0.73750000000000004,</t>
-  </si>
-  <si>
-    <t>0.73922842537332223,</t>
-  </si>
-  <si>
-    <t>0.73702500140879457),</t>
-  </si>
-  <si>
-    <t>('MultinomialNB',</t>
-  </si>
-  <si>
-    <t>0.77000000000000002,</t>
-  </si>
-  <si>
-    <t>0.77067669172932329,</t>
-  </si>
-  <si>
-    <t>0.76985616010006264)]</t>
-  </si>
-  <si>
-    <t>Binary 200-200-700</t>
-  </si>
-  <si>
-    <t>Binary 400-400-1400</t>
-  </si>
-  <si>
     <t>table</t>
   </si>
   <si>
@@ -4264,6 +4224,15 @@
   </si>
   <si>
     <t>40.07 (1.64)</t>
+  </si>
+  <si>
+    <t>5-way with TFIDF NB</t>
+  </si>
+  <si>
+    <t>total number of items from each class in test data</t>
+  </si>
+  <si>
+    <t>Total of predicted labels (indicative of bias)</t>
   </si>
 </sst>
 </file>
@@ -4391,7 +4360,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4428,6 +4397,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4438,7 +4413,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4538,8 +4513,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4596,8 +4575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4647,6 +4627,8 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4696,6 +4678,8 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5003,11 +4987,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2133879608"/>
-        <c:axId val="-2134445096"/>
+        <c:axId val="1342754992"/>
+        <c:axId val="843519648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133879608"/>
+        <c:axId val="1342754992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,7 +5034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134445096"/>
+        <c:crossAx val="843519648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5058,7 +5042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134445096"/>
+        <c:axId val="843519648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5109,7 +5093,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133879608"/>
+        <c:crossAx val="1342754992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5484,11 +5468,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2134066072"/>
-        <c:axId val="-2134036600"/>
+        <c:axId val="1339221376"/>
+        <c:axId val="1339224208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2134066072"/>
+        <c:axId val="1339221376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5531,7 +5515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134036600"/>
+        <c:crossAx val="1339224208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5539,7 +5523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134036600"/>
+        <c:axId val="1339224208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5590,7 +5574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134066072"/>
+        <c:crossAx val="1339221376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6013,11 +5997,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2133870824"/>
-        <c:axId val="-2133874520"/>
+        <c:axId val="1339192720"/>
+        <c:axId val="1342283648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133870824"/>
+        <c:axId val="1339192720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6060,7 +6044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133874520"/>
+        <c:crossAx val="1342283648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6068,7 +6052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133874520"/>
+        <c:axId val="1342283648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6119,7 +6103,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133870824"/>
+        <c:crossAx val="1339192720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6446,11 +6430,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2136146792"/>
-        <c:axId val="-2136155032"/>
+        <c:axId val="878814672"/>
+        <c:axId val="878969088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136146792"/>
+        <c:axId val="878814672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6493,7 +6477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136155032"/>
+        <c:crossAx val="878969088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6501,7 +6485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136155032"/>
+        <c:axId val="878969088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6552,7 +6536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136146792"/>
+        <c:crossAx val="878814672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7029,11 +7013,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2136030824"/>
-        <c:axId val="-2136719832"/>
+        <c:axId val="1339106016"/>
+        <c:axId val="1342849408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136030824"/>
+        <c:axId val="1339106016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7076,7 +7060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136719832"/>
+        <c:crossAx val="1342849408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7084,7 +7068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136719832"/>
+        <c:axId val="1342849408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7135,7 +7119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136030824"/>
+        <c:crossAx val="1339106016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7230,6 +7214,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7744,11 +7729,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2132969608"/>
-        <c:axId val="-2132965928"/>
+        <c:axId val="1339273584"/>
+        <c:axId val="1339276864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132969608"/>
+        <c:axId val="1339273584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7791,7 +7776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132965928"/>
+        <c:crossAx val="1339276864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7799,7 +7784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132965928"/>
+        <c:axId val="1339276864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7850,7 +7835,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132969608"/>
+        <c:crossAx val="1339273584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7864,6 +7849,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7945,6 +7931,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8495,11 +8482,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2133899560"/>
-        <c:axId val="-2133898152"/>
+        <c:axId val="843785472"/>
+        <c:axId val="843436224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133899560"/>
+        <c:axId val="843785472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8542,7 +8529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133898152"/>
+        <c:crossAx val="843436224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8550,7 +8537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133898152"/>
+        <c:axId val="843436224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8601,7 +8588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133899560"/>
+        <c:crossAx val="843785472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8615,6 +8602,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8696,6 +8684,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9138,11 +9127,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2132910200"/>
-        <c:axId val="-2132906520"/>
+        <c:axId val="877090864"/>
+        <c:axId val="1584894464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132910200"/>
+        <c:axId val="877090864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9185,7 +9174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132906520"/>
+        <c:crossAx val="1584894464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9193,7 +9182,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132906520"/>
+        <c:axId val="1584894464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9244,7 +9233,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132910200"/>
+        <c:crossAx val="877090864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9258,6 +9247,648 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5-way with TFIDF NB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ftrue (train)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="809375328"/>
+        <c:axId val="809377104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="809375328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809377104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="809377104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809375328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9644,6 +10275,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -13180,6 +13851,511 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13926,6 +15102,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14189,7 +15400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14203,12 +15414,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -14225,7 +15436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14242,7 +15453,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14259,7 +15470,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14276,7 +15487,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14293,7 +15504,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14310,7 +15521,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14327,7 +15538,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14344,7 +15555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14361,7 +15572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -14378,7 +15589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -14395,7 +15606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -14412,7 +15623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -14429,7 +15640,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -14446,7 +15657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -14463,7 +15674,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -14480,7 +15691,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -14497,7 +15708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -14514,7 +15725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -14531,7 +15742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -14548,7 +15759,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -14583,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -14618,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -14653,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -14688,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -14723,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="R47">
         <v>176</v>
       </c>
@@ -14743,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>9</v>
       </c>
@@ -14757,7 +15968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -14774,7 +15985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -14795,11 +16006,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14811,7 +16017,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
@@ -14820,73 +16026,73 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B5" s="21">
         <v>55.500000000000007</v>
@@ -14901,9 +16107,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B6" s="21">
         <v>53.7</v>
@@ -14918,9 +16124,9 @@
         <v>76.62</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B7" s="21">
         <v>53</v>
@@ -14935,24 +16141,24 @@
         <v>77.239999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -14961,11 +16167,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14973,16 +16174,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -15005,7 +16206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -15028,7 +16229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -15051,7 +16252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -15074,7 +16275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -15097,7 +16298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -15120,7 +16321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -15143,7 +16344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -15166,7 +16367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -15189,7 +16390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -15212,7 +16413,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -15235,7 +16436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -15258,7 +16459,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -15281,7 +16482,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -15304,7 +16505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -15327,7 +16528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -15350,7 +16551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -15373,7 +16574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -15396,7 +16597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -15419,7 +16620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -15445,11 +16646,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15461,9 +16657,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -15492,12 +16688,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -15527,7 +16723,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -15557,7 +16753,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -15587,7 +16783,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15617,7 +16813,7 @@
         <v>8033</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -15656,11 +16852,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15672,12 +16863,12 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="168.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -15718,7 +16909,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15759,7 +16950,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -15800,7 +16991,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -15841,7 +17032,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -15882,7 +17073,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -15923,7 +17114,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -15964,7 +17155,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -16005,7 +17196,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -16046,7 +17237,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -16087,7 +17278,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -16128,7 +17319,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -16169,7 +17360,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -16210,7 +17401,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -16251,7 +17442,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -16292,7 +17483,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -16333,7 +17524,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -16374,7 +17565,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -16415,7 +17606,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -16456,7 +17647,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -16497,7 +17688,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -16538,7 +17729,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -16579,7 +17770,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -16620,7 +17811,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -16661,7 +17852,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -16702,7 +17893,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -16743,7 +17934,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -16784,7 +17975,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -16825,7 +18016,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -16866,7 +18057,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -16907,7 +18098,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.66618042171821257</v>
@@ -16933,185 +18124,185 @@
         <v>0.39809999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -17119,11 +18310,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17135,7 +18321,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="134.83203125" customWidth="1"/>
     <col min="8" max="9" width="46.1640625" customWidth="1"/>
@@ -17143,7 +18329,7 @@
     <col min="12" max="12" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -17184,7 +18370,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -17225,7 +18411,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -17266,7 +18452,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -17307,7 +18493,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -17348,7 +18534,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -17389,7 +18575,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -17430,7 +18616,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -17471,7 +18657,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -17512,7 +18698,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -17553,7 +18739,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -17594,7 +18780,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -17635,7 +18821,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -17676,7 +18862,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -17717,7 +18903,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -17758,7 +18944,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -17799,7 +18985,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -17840,7 +19026,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -17881,7 +19067,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -17922,7 +19108,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -17963,7 +19149,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -18004,7 +19190,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -18045,7 +19231,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -18086,7 +19272,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -18127,7 +19313,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -18168,7 +19354,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -18209,7 +19395,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -18250,7 +19436,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -18291,7 +19477,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -18332,7 +19518,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -18373,7 +19559,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.30563419885209575</v>
@@ -18399,211 +19585,211 @@
         <v>0.40310000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" ht="18">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18">
+    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
+    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18">
+    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18">
+    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18">
+    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>151</v>
       </c>
@@ -18611,11 +19797,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18627,12 +19808,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="111.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -18673,7 +19854,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -18714,7 +19895,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -18755,7 +19936,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18796,7 +19977,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -18837,7 +20018,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -18878,7 +20059,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -18919,7 +20100,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -18960,7 +20141,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -19001,7 +20182,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -19042,7 +20223,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.62768753695487889</v>
@@ -19068,7 +20249,7 @@
         <v>0.39339999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>0.23703261544633211</v>
@@ -19094,183 +20275,183 @@
         <v>2.298405244221886E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" ht="18">
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18">
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18">
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18">
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18">
+    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18">
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18">
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18">
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18">
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18">
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>236</v>
       </c>
@@ -19278,11 +20459,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -19294,12 +20470,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="130.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -19340,7 +20516,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -19381,7 +20557,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -19422,7 +20598,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19463,7 +20639,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -19504,7 +20680,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -19545,7 +20721,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -19586,7 +20762,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -19627,7 +20803,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -19668,7 +20844,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -19709,7 +20885,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.14167151762715374</v>
@@ -19735,7 +20911,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>5.3834427733717834E-2</v>
@@ -19761,150 +20937,150 @@
         <v>2.1401194151521332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="18">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18">
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18">
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18">
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18">
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18">
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18">
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18">
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18">
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18">
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18">
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18">
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18">
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18">
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18">
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18">
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18">
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18">
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18">
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18">
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>151</v>
       </c>
@@ -19912,11 +21088,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -19924,22 +21095,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
     <col min="18" max="18" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -19950,7 +21121,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -19991,7 +21162,7 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -20032,7 +21203,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -20073,7 +21244,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20114,7 +21285,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -20155,7 +21326,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -20166,7 +21337,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -20207,7 +21378,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -20248,7 +21419,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -20289,7 +21460,7 @@
         <v>0.6825</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -20330,7 +21501,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -20371,12 +21542,12 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -20387,7 +21558,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -20410,25 +21581,25 @@
         <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="I21">
         <v>0.997857142857142</v>
       </c>
       <c r="J21" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="K21">
         <v>0.75749999999999995</v>
       </c>
       <c r="L21" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="M21">
         <v>0.745</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -20451,25 +21622,25 @@
         <v>40</v>
       </c>
       <c r="H22" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="I22">
         <v>0.99821428571428505</v>
       </c>
       <c r="J22" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K22">
         <v>0.76624999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="M22">
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -20492,25 +21663,25 @@
         <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="I23">
         <v>0.997857142857142</v>
       </c>
       <c r="J23" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="K23">
         <v>0.755</v>
       </c>
       <c r="L23" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M23">
         <v>0.73375000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -20533,25 +21704,25 @@
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I24">
         <v>0.997857142857142</v>
       </c>
       <c r="J24" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="K24">
         <v>0.755</v>
       </c>
       <c r="L24" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="M24">
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -20574,25 +21745,25 @@
         <v>40</v>
       </c>
       <c r="H25" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="I25">
         <v>0.997142857142857</v>
       </c>
       <c r="J25" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K25">
         <v>0.76124999999999998</v>
       </c>
       <c r="L25" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="M25">
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -20633,7 +21804,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -20674,7 +21845,7 @@
         <v>0.72875000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -20715,7 +21886,7 @@
         <v>0.73875000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -20756,7 +21927,7 @@
         <v>0.75124999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20797,7 +21968,7 @@
         <v>0.74124999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K31">
         <f>AVERAGE(K21:K30)</f>
         <v>0.76249999999999996</v>
@@ -20811,7 +21982,7 @@
         <v>0.74037500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K32">
         <f>STDEV(K21:K30)</f>
         <v>6.5085413965888751E-3</v>
@@ -20825,7 +21996,7 @@
         <v>8.0816149376222949E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>273</v>
       </c>
@@ -20836,7 +22007,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -20859,25 +22030,25 @@
         <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="I36">
         <v>0.97892857142857104</v>
       </c>
       <c r="J36" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="K36">
         <v>0.73</v>
       </c>
       <c r="L36" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="M36">
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -20900,25 +22071,25 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="I37">
         <v>0.997857142857142</v>
       </c>
       <c r="J37" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="K37">
         <v>0.74124999999999996</v>
       </c>
       <c r="L37" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="M37">
         <v>0.73624999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -20941,25 +22112,25 @@
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="I38">
         <v>0.997142857142857</v>
       </c>
       <c r="J38" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K38">
         <v>0.72624999999999995</v>
       </c>
       <c r="L38" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M38">
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -20982,25 +22153,25 @@
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="I39">
         <v>0.997857142857142</v>
       </c>
       <c r="J39" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="K39">
         <v>0.74</v>
       </c>
       <c r="L39" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M39">
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -21023,25 +22194,25 @@
         <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="I40">
         <v>0.99821428571428505</v>
       </c>
       <c r="J40" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K40">
         <v>0.75249999999999995</v>
       </c>
       <c r="L40" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M40">
         <v>0.73</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -21082,7 +22253,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -21123,7 +22294,7 @@
         <v>0.73375000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -21164,7 +22335,7 @@
         <v>0.70625000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -21205,7 +22376,7 @@
         <v>0.73250000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -21246,7 +22417,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K46">
         <f>AVERAGE(K36:K45)</f>
         <v>0.73699999999999999</v>
@@ -21260,7 +22431,7 @@
         <v>0.72262500000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K47">
         <f>STDEV(K36:K45)</f>
         <v>1.000347161961508E-2</v>
@@ -21274,269 +22445,269 @@
         <v>1.1835827201997986E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
     </row>
-    <row r="54" spans="1:1" ht="18">
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18">
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18">
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18">
+    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18">
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18">
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18">
+    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18">
+    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18">
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18">
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18">
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18">
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18">
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18">
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18">
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18">
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18">
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18">
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18">
+    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18">
+    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
     </row>
-    <row r="78" spans="1:1" ht="18">
+    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18">
+    <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18">
+    <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18">
+    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18">
+    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18">
+    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18">
+    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18">
+    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18">
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18">
+    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18">
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18">
+    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18">
+    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18">
+    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18">
+    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18">
+    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18">
+    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18">
+    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18">
+    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18">
+    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18">
+    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18">
+    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18">
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18">
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18">
+    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18">
+    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18">
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18">
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18">
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="16" t="s">
         <v>151</v>
       </c>
@@ -21544,101 +22715,197 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="7" max="7" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
+    <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" t="s">
-        <v>328</v>
-      </c>
-      <c r="I3" t="s">
-        <v>333</v>
-      </c>
-      <c r="J3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K3" t="s">
-        <v>333</v>
-      </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" t="s">
-        <v>336</v>
-      </c>
-      <c r="N3" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" t="s">
-        <v>337</v>
-      </c>
-      <c r="P3" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>149</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="22">
+        <f>SUM(B2:B6)</f>
+        <v>143</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
+        <v>257</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
     <sheet name="liar classifier" sheetId="2" r:id="rId2"/>
-    <sheet name="summary" sheetId="3" r:id="rId3"/>
+    <sheet name="data statistics summary" sheetId="3" r:id="rId3"/>
     <sheet name="CNN 1 500" sheetId="5" r:id="rId4"/>
     <sheet name="CNN 2 500" sheetId="4" r:id="rId5"/>
     <sheet name="CNN1 1000" sheetId="6" r:id="rId6"/>
     <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
     <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
     <sheet name="TF-IDF" sheetId="11" r:id="rId9"/>
-    <sheet name="Results Table" sheetId="10" r:id="rId10"/>
+    <sheet name="Misinf detection results table" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="380">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4229,10 +4229,13 @@
     <t>5-way with TFIDF NB</t>
   </si>
   <si>
-    <t>total number of items from each class in test data</t>
-  </si>
-  <si>
     <t>Total of predicted labels (indicative of bias)</t>
+  </si>
+  <si>
+    <t>Accuracy per class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test items per class </t>
   </si>
 </sst>
 </file>
@@ -4360,7 +4363,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4400,6 +4403,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4518,7 +4533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4576,6 +4591,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5107,6 +5124,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5588,6 +5606,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6631,6 +6650,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7133,6 +7153,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15114,16 +15135,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22720,19 +22741,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="7" max="7" width="46.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>376</v>
       </c>
@@ -22752,10 +22774,13 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -22778,8 +22803,12 @@
         <f>SUM(B2:F2)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="23">
+        <f>B2/G2</f>
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -22802,8 +22831,12 @@
         <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="23">
+        <f>C3/G3</f>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -22826,8 +22859,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="23">
+        <f>D4/G4</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -22850,8 +22887,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="23">
+        <f>E5/G5</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -22874,10 +22915,14 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="23">
+        <f>F6/G6</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B7" s="22">
         <f>SUM(B2:B6)</f>
@@ -22902,6 +22947,10 @@
       <c r="G7">
         <f t="shared" si="0"/>
         <v>1000</v>
+      </c>
+      <c r="H7" s="24">
+        <f>AVERAGE(H2:H6)</f>
+        <v>0.56700000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -4428,8 +4428,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="103">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4594,7 +4598,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="103">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4646,6 +4650,8 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4697,6 +4703,8 @@
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16674,7 +16682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -22743,8 +22751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ftorabia/workspace/shared/sfu/fake_news/data/buzzfeed-debunk-combined/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37640" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -23,20 +18,20 @@
     <sheet name="TF-IDF" sheetId="11" r:id="rId9"/>
     <sheet name="Misinf detection results table" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="381">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4236,6 +4231,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test items per class </t>
+  </si>
+  <si>
+    <t>Model trained on Rumor classifies most of Buzzfeed items as false, which means the Buzzfeed corpus as a whole is similar to the false classes in Rumor data. One possibilitiy is that false instances in Rumor are about US election so have more lexical overlap with Buzzfeed data (?)</t>
   </si>
 </sst>
 </file>
@@ -4428,8 +4426,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4598,7 +4606,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4652,6 +4660,11 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4705,6 +4718,11 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5012,11 +5030,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1342754992"/>
-        <c:axId val="843519648"/>
+        <c:axId val="-2074048808"/>
+        <c:axId val="-2074045192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1342754992"/>
+        <c:axId val="-2074048808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843519648"/>
+        <c:crossAx val="-2074045192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5067,7 +5085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843519648"/>
+        <c:axId val="-2074045192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5118,7 +5136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342754992"/>
+        <c:crossAx val="-2074048808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5147,6 +5165,625 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5-way with TFIDF NB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ftrue (train)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2106451624"/>
+        <c:axId val="2106455240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2106451624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106455240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2106455240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2106451624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5494,11 +6131,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339221376"/>
-        <c:axId val="1339224208"/>
+        <c:axId val="-2072072392"/>
+        <c:axId val="-2072805400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339221376"/>
+        <c:axId val="-2072072392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,7 +6178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339224208"/>
+        <c:crossAx val="-2072805400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5549,7 +6186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339224208"/>
+        <c:axId val="-2072805400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,7 +6237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339221376"/>
+        <c:crossAx val="-2072072392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6024,11 +6661,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339192720"/>
-        <c:axId val="1342283648"/>
+        <c:axId val="-2073994920"/>
+        <c:axId val="-2074076632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339192720"/>
+        <c:axId val="-2073994920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6071,7 +6708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342283648"/>
+        <c:crossAx val="-2074076632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6079,7 +6716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342283648"/>
+        <c:axId val="-2074076632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6130,7 +6767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339192720"/>
+        <c:crossAx val="-2073994920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6144,6 +6781,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6457,11 +7095,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="878814672"/>
-        <c:axId val="878969088"/>
+        <c:axId val="-2072040856"/>
+        <c:axId val="-2072054200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="878814672"/>
+        <c:axId val="-2072040856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,7 +7142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878969088"/>
+        <c:crossAx val="-2072054200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6512,7 +7150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="878969088"/>
+        <c:axId val="-2072054200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6563,7 +7201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878814672"/>
+        <c:crossAx val="-2072040856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6577,6 +7215,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7041,11 +7680,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339106016"/>
-        <c:axId val="1342849408"/>
+        <c:axId val="-2072957256"/>
+        <c:axId val="-2072968520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339106016"/>
+        <c:axId val="-2072957256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7088,7 +7727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342849408"/>
+        <c:crossAx val="-2072968520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7096,7 +7735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342849408"/>
+        <c:axId val="-2072968520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7147,7 +7786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339106016"/>
+        <c:crossAx val="-2072957256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7235,6 +7874,205 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$S$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$R$42:$R$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$S$42:$S$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$T$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$R$42:$R$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$T$42:$T$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>758.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1846599336"/>
+        <c:axId val="1849069976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1846599336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1849069976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1849069976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1846599336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -7243,7 +8081,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7758,11 +8595,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339273584"/>
-        <c:axId val="1339276864"/>
+        <c:axId val="1847342472"/>
+        <c:axId val="1847346152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339273584"/>
+        <c:axId val="1847342472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7805,7 +8642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339276864"/>
+        <c:crossAx val="1847346152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7813,7 +8650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339276864"/>
+        <c:axId val="1847346152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7864,7 +8701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339273584"/>
+        <c:crossAx val="1847342472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7878,760 +8715,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ftrue (train)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$B$23:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>390.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$C$23:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>288.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>189.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>322.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>784.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$D$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mixture</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$D$23:$D$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>359.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>481.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>395.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>523.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1137.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$E$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$E$23:$E$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>375.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>279.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>304.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>666.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$F$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$F$23:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>471.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>267.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>737.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>962.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2108.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$G$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$G$23:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>396.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="843785472"/>
-        <c:axId val="843436224"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="843785472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843436224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="843436224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="843785472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8713,7 +8796,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8755,7 +8837,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$B$33</c:f>
+              <c:f>'liar classifier'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8776,19 +8858,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
@@ -8796,21 +8887,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$B$34:$B$37</c:f>
+              <c:f>'liar classifier'!$B$23:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8821,7 +8921,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$C$33</c:f>
+              <c:f>'liar classifier'!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8842,19 +8942,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
@@ -8862,21 +8971,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$C$34:$C$37</c:f>
+              <c:f>'liar classifier'!$C$23:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.0</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8887,7 +9005,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$D$33</c:f>
+              <c:f>'liar classifier'!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8908,19 +9026,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
@@ -8928,21 +9055,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$D$34:$D$37</c:f>
+              <c:f>'liar classifier'!$D$23:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>359.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.0</c:v>
+                  <c:v>481.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.0</c:v>
+                  <c:v>395.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>523.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1137.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8953,7 +9089,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$E$33</c:f>
+              <c:f>'liar classifier'!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8974,19 +9110,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
@@ -8994,21 +9139,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$E$34:$E$37</c:f>
+              <c:f>'liar classifier'!$E$23:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>326.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9019,7 +9173,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$F$33</c:f>
+              <c:f>'liar classifier'!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9040,19 +9194,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
@@ -9060,21 +9223,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$F$34:$F$37</c:f>
+              <c:f>'liar classifier'!$F$23:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>737.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2108.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9085,7 +9257,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$G$33</c:f>
+              <c:f>'liar classifier'!$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9106,19 +9278,28 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
@@ -9126,21 +9307,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$G$34:$G$37</c:f>
+              <c:f>'liar classifier'!$G$23:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9156,11 +9346,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="877090864"/>
-        <c:axId val="1584894464"/>
+        <c:axId val="1847403528"/>
+        <c:axId val="1847407208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="877090864"/>
+        <c:axId val="1847403528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9203,7 +9393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584894464"/>
+        <c:crossAx val="1847407208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9211,7 +9401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1584894464"/>
+        <c:axId val="1847407208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9262,7 +9452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877090864"/>
+        <c:crossAx val="1847403528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9276,7 +9466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9358,39 +9547,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>5-way with TFIDF NB</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9432,7 +9588,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$B$1</c:f>
+              <c:f>'liar classifier'!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9453,47 +9609,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ftrue</c:v>
+                  <c:v>mtrue</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mtrue</c:v>
+                  <c:v>mixture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mixture</c:v>
+                  <c:v>mfalse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$B$2:$B$6</c:f>
+              <c:f>'liar classifier'!$B$34:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>111.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9504,7 +9654,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$C$1</c:f>
+              <c:f>'liar classifier'!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9525,47 +9675,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ftrue</c:v>
+                  <c:v>mtrue</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mtrue</c:v>
+                  <c:v>mixture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mixture</c:v>
+                  <c:v>mfalse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$C$2:$C$6</c:f>
+              <c:f>'liar classifier'!$C$34:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9576,7 +9720,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$D$1</c:f>
+              <c:f>'liar classifier'!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9597,47 +9741,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ftrue</c:v>
+                  <c:v>mtrue</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mtrue</c:v>
+                  <c:v>mixture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mixture</c:v>
+                  <c:v>mfalse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$D$2:$D$6</c:f>
+              <c:f>'liar classifier'!$D$34:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>412.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9648,7 +9786,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$E$1</c:f>
+              <c:f>'liar classifier'!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9669,47 +9807,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ftrue</c:v>
+                  <c:v>mtrue</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mtrue</c:v>
+                  <c:v>mixture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mixture</c:v>
+                  <c:v>mfalse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$E$2:$E$6</c:f>
+              <c:f>'liar classifier'!$E$34:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>22.0</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>326.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9720,7 +9852,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$F$1</c:f>
+              <c:f>'liar classifier'!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9741,47 +9873,107 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ftrue</c:v>
+                  <c:v>mtrue</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mtrue</c:v>
+                  <c:v>mixture</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>mixture</c:v>
+                  <c:v>mfalse</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$F$2:$F$6</c:f>
+              <c:f>'liar classifier'!$F$34:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>31.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$G$34:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>96.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9797,11 +9989,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="809375328"/>
-        <c:axId val="809377104"/>
+        <c:axId val="1847461320"/>
+        <c:axId val="1847465000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="809375328"/>
+        <c:axId val="1847461320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9844,7 +10036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809377104"/>
+        <c:crossAx val="1847465000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9852,7 +10044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809377104"/>
+        <c:axId val="1847465000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9903,7 +10095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809375328"/>
+        <c:crossAx val="1847461320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9917,7 +10109,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15041,6 +15232,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>522942</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>32870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15429,7 +15650,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15437,18 +15658,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="18" max="18" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -15465,7 +15687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15482,7 +15704,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15499,7 +15721,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -15516,7 +15738,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -15533,7 +15755,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -15550,7 +15772,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -15567,7 +15789,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -15584,7 +15806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15601,7 +15823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -15618,7 +15840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -15635,7 +15857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -15652,7 +15874,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -15669,7 +15891,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -15686,7 +15908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -15703,7 +15925,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -15720,7 +15942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -15737,7 +15959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -15754,7 +15976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -15771,7 +15993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -15787,8 +16009,17 @@
       <c r="E41">
         <v>215</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="R41" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" t="s">
+        <v>12</v>
+      </c>
+      <c r="T41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -15804,26 +16035,17 @@
       <c r="E42">
         <v>58</v>
       </c>
-      <c r="R42">
-        <v>330</v>
+      <c r="R42" t="s">
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="T42">
-        <v>185</v>
-      </c>
-      <c r="U42">
-        <v>215</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -15839,26 +16061,17 @@
       <c r="E43">
         <v>254</v>
       </c>
-      <c r="R43">
-        <v>139</v>
+      <c r="R43" t="s">
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="T43">
-        <v>49</v>
-      </c>
-      <c r="U43">
-        <v>58</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -15874,26 +16087,17 @@
       <c r="E44">
         <v>345</v>
       </c>
-      <c r="R44">
-        <v>540</v>
+      <c r="R44" t="s">
+        <v>3</v>
       </c>
       <c r="S44">
-        <v>422</v>
+        <v>25</v>
       </c>
       <c r="T44">
-        <v>160</v>
-      </c>
-      <c r="U44">
-        <v>254</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -15909,26 +16113,17 @@
       <c r="E45">
         <v>776</v>
       </c>
-      <c r="R45">
-        <v>651</v>
+      <c r="R45" t="s">
+        <v>6</v>
       </c>
       <c r="S45">
-        <v>497</v>
+        <v>11</v>
       </c>
       <c r="T45">
-        <v>214</v>
-      </c>
-      <c r="U45">
-        <v>345</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -15944,46 +16139,13 @@
       <c r="E46">
         <v>166</v>
       </c>
-      <c r="R46">
-        <v>1307</v>
-      </c>
-      <c r="S46">
-        <v>1199</v>
-      </c>
-      <c r="T46">
-        <v>557</v>
-      </c>
-      <c r="U46">
-        <v>776</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="R47">
-        <v>176</v>
-      </c>
-      <c r="S47">
-        <v>154</v>
-      </c>
-      <c r="T47">
-        <v>44</v>
-      </c>
-      <c r="U47">
-        <v>166</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:20">
+      <c r="R48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="B65" t="s">
         <v>9</v>
       </c>
@@ -15997,7 +16159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -16014,7 +16176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -16033,8 +16195,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16046,7 +16213,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="55.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
@@ -16055,7 +16222,7 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
         <v>327</v>
       </c>
@@ -16068,7 +16235,7 @@
       </c>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
         <v>328</v>
       </c>
@@ -16085,7 +16252,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>336</v>
       </c>
@@ -16102,7 +16269,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -16119,7 +16286,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>333</v>
       </c>
@@ -16136,7 +16303,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>334</v>
       </c>
@@ -16153,7 +16320,7 @@
         <v>76.62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>335</v>
       </c>
@@ -16170,24 +16337,24 @@
         <v>77.239999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -16196,6 +16363,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16207,12 +16379,12 @@
       <selection activeCell="A23" sqref="A23:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -16235,7 +16407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -16258,7 +16430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -16281,7 +16453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -16304,7 +16476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16327,7 +16499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -16350,7 +16522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -16373,7 +16545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -16396,7 +16568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -16419,7 +16591,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -16442,7 +16614,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -16465,7 +16637,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -16488,7 +16660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -16511,7 +16683,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -16534,7 +16706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -16557,7 +16729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -16580,7 +16752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -16603,7 +16775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -16626,7 +16798,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -16649,7 +16821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -16675,6 +16847,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16682,13 +16859,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -16717,12 +16894,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -16752,7 +16929,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -16782,7 +16959,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -16812,7 +16989,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -16842,7 +17019,7 @@
         <v>8033</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -16881,6 +17058,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16892,12 +17074,12 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="168.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -16938,7 +17120,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -16979,7 +17161,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -17020,7 +17202,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -17061,7 +17243,7 @@
         <v>0.39300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -17102,7 +17284,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -17143,7 +17325,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -17184,7 +17366,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -17225,7 +17407,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -17266,7 +17448,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -17307,7 +17489,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -17348,7 +17530,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -17389,7 +17571,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -17430,7 +17612,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -17471,7 +17653,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -17512,7 +17694,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -17553,7 +17735,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -17594,7 +17776,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -17635,7 +17817,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -17676,7 +17858,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -17717,7 +17899,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -17758,7 +17940,7 @@
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -17799,7 +17981,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -17840,7 +18022,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -17881,7 +18063,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -17922,7 +18104,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -17963,7 +18145,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -18004,7 +18186,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -18045,7 +18227,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -18086,7 +18268,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -18127,7 +18309,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.66618042171821257</v>
@@ -18153,185 +18335,185 @@
         <v>0.39809999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="19"/>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="19"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="10" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="4" t="s">
         <v>236</v>
       </c>
@@ -18339,6 +18521,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -18350,7 +18537,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="134.83203125" customWidth="1"/>
     <col min="8" max="9" width="46.1640625" customWidth="1"/>
@@ -18358,7 +18545,7 @@
     <col min="12" max="12" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -18399,7 +18586,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -18440,7 +18627,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -18481,7 +18668,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -18522,7 +18709,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -18563,7 +18750,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -18604,7 +18791,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -18645,7 +18832,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -18686,7 +18873,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -18727,7 +18914,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -18768,7 +18955,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -18809,7 +18996,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -18850,7 +19037,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -18891,7 +19078,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -18932,7 +19119,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -18973,7 +19160,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -19014,7 +19201,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -19055,7 +19242,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -19096,7 +19283,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -19137,7 +19324,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -19178,7 +19365,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -19219,7 +19406,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -19260,7 +19447,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -19301,7 +19488,7 @@
         <v>0.40699999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -19342,7 +19529,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -19383,7 +19570,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -19424,7 +19611,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -19465,7 +19652,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -19506,7 +19693,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -19547,7 +19734,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -19588,7 +19775,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="H31">
         <f>AVERAGE(H1:H30)</f>
         <v>0.30563419885209575</v>
@@ -19614,211 +19801,211 @@
         <v>0.40310000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="12"/>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="18">
       <c r="A75" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" ht="18">
       <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" ht="18">
       <c r="A77" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="16" t="s">
         <v>151</v>
       </c>
@@ -19826,6 +20013,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19837,12 +20029,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="111.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -19883,7 +20075,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -19924,7 +20116,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -19965,7 +20157,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -20006,7 +20198,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -20047,7 +20239,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -20088,7 +20280,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20129,7 +20321,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -20170,7 +20362,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -20211,7 +20403,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -20252,7 +20444,7 @@
         <v>0.40200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.62768753695487889</v>
@@ -20278,7 +20470,7 @@
         <v>0.39339999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>0.23703261544633211</v>
@@ -20304,183 +20496,183 @@
         <v>2.298405244221886E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="12"/>
     </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="19"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="19"/>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="19"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="19"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="19"/>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" ht="18">
       <c r="A45" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" ht="18">
       <c r="A46" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" ht="18">
       <c r="A47" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" ht="18">
       <c r="A48" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" ht="18">
       <c r="A49" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" ht="18">
       <c r="A50" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" ht="18">
       <c r="A51" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" ht="18">
       <c r="A52" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" ht="18">
       <c r="A53" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="16" t="s">
         <v>236</v>
       </c>
@@ -20488,6 +20680,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -20499,12 +20696,12 @@
       <selection activeCell="K11" sqref="K11:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="130.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -20545,7 +20742,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -20586,7 +20783,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -20627,7 +20824,7 @@
         <v>0.40899999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -20668,7 +20865,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -20709,7 +20906,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -20750,7 +20947,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -20791,7 +20988,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -20832,7 +21029,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -20873,7 +21070,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -20914,7 +21111,7 @@
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="H11">
         <f>AVERAGE(H1:H10)</f>
         <v>0.14167151762715374</v>
@@ -20940,7 +21137,7 @@
         <v>0.4027</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="H12">
         <f>STDEV(H1:H10)</f>
         <v>5.3834427733717834E-2</v>
@@ -20966,150 +21163,150 @@
         <v>2.1401194151521332E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18">
       <c r="A16" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="18">
       <c r="A17" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="18">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="18">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="18">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="18">
       <c r="A22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="18">
       <c r="A23" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="18">
       <c r="A25" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" ht="18">
       <c r="A26" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" ht="18">
       <c r="A28" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" ht="18">
       <c r="A29" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" ht="18">
       <c r="A30" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" ht="18">
       <c r="A31" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="18">
       <c r="A33" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="18">
       <c r="A34" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="18">
       <c r="A35" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="18">
       <c r="A36" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="18">
       <c r="A37" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="18">
       <c r="A38" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="18">
       <c r="A39" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" ht="18">
       <c r="A40" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" ht="18">
       <c r="A41" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" ht="18">
       <c r="A42" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" ht="18">
       <c r="A43" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" ht="18">
       <c r="A44" s="16" t="s">
         <v>151</v>
       </c>
@@ -21117,6 +21314,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -21128,18 +21330,18 @@
       <selection activeCell="A52" sqref="A52:A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="81.6640625" customWidth="1"/>
     <col min="18" max="18" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>273</v>
       </c>
@@ -21150,7 +21352,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -21191,7 +21393,7 @@
         <v>0.6925</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -21232,7 +21434,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -21273,7 +21475,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -21314,7 +21516,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -21355,7 +21557,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -21366,7 +21568,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -21407,7 +21609,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -21448,7 +21650,7 @@
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -21489,7 +21691,7 @@
         <v>0.6825</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -21530,7 +21732,7 @@
         <v>0.70250000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -21571,12 +21773,12 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>273</v>
       </c>
@@ -21587,7 +21789,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -21628,7 +21830,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -21669,7 +21871,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -21710,7 +21912,7 @@
         <v>0.73375000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -21751,7 +21953,7 @@
         <v>0.73750000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -21792,7 +21994,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -21833,7 +22035,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -21874,7 +22076,7 @@
         <v>0.72875000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -21915,7 +22117,7 @@
         <v>0.73875000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -21956,7 +22158,7 @@
         <v>0.75124999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -21997,7 +22199,7 @@
         <v>0.74124999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="K31">
         <f>AVERAGE(K21:K30)</f>
         <v>0.76249999999999996</v>
@@ -22011,7 +22213,7 @@
         <v>0.74037500000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="K32">
         <f>STDEV(K21:K30)</f>
         <v>6.5085413965888751E-3</v>
@@ -22025,7 +22227,7 @@
         <v>8.0816149376222949E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>273</v>
       </c>
@@ -22036,7 +22238,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -22077,7 +22279,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -22118,7 +22320,7 @@
         <v>0.73624999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -22159,7 +22361,7 @@
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -22200,7 +22402,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -22241,7 +22443,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -22282,7 +22484,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -22323,7 +22525,7 @@
         <v>0.73375000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -22364,7 +22566,7 @@
         <v>0.70625000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -22405,7 +22607,7 @@
         <v>0.73250000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -22446,7 +22648,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="K46">
         <f>AVERAGE(K36:K45)</f>
         <v>0.73699999999999999</v>
@@ -22460,7 +22662,7 @@
         <v>0.72262500000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="K47">
         <f>STDEV(K36:K45)</f>
         <v>1.000347161961508E-2</v>
@@ -22474,269 +22676,269 @@
         <v>1.1835827201997986E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="12"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="19"/>
     </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" ht="18">
       <c r="A54" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" ht="18">
       <c r="A55" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" ht="18">
       <c r="A56" s="15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" ht="18">
       <c r="A57" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="18">
       <c r="A58" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" ht="18">
       <c r="A59" s="15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" ht="18">
       <c r="A60" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" ht="18">
       <c r="A61" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" ht="18">
       <c r="A62" s="16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" ht="18">
       <c r="A63" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" ht="18">
       <c r="A64" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" ht="18">
       <c r="A65" s="17" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" ht="18">
       <c r="A66" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" ht="18">
       <c r="A67" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="18">
       <c r="A68" s="16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" ht="18">
       <c r="A69" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" ht="18">
       <c r="A70" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" ht="18">
       <c r="A71" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" ht="18">
       <c r="A72" s="16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" ht="18">
       <c r="A73" s="15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" ht="18">
       <c r="A74" s="15" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" ht="18">
       <c r="A75" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="19"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="19"/>
     </row>
-    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" ht="18">
       <c r="A78" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" ht="18">
       <c r="A79" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" ht="18">
       <c r="A80" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" ht="18">
       <c r="A81" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" ht="18">
       <c r="A82" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" ht="18">
       <c r="A83" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" ht="18">
       <c r="A84" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" ht="18">
       <c r="A85" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" ht="18">
       <c r="A86" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" ht="18">
       <c r="A87" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" ht="18">
       <c r="A88" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" ht="18">
       <c r="A89" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" ht="18">
       <c r="A90" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" ht="18">
       <c r="A91" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" ht="18">
       <c r="A92" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" ht="18">
       <c r="A93" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" ht="18">
       <c r="A94" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" ht="18">
       <c r="A95" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" ht="18">
       <c r="A96" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" ht="18">
       <c r="A97" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" ht="18">
       <c r="A98" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" ht="18">
       <c r="A99" s="16" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" ht="18">
       <c r="A100" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" ht="18">
       <c r="A101" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" ht="18">
       <c r="A102" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" ht="18">
       <c r="A103" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" ht="18">
       <c r="A104" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" ht="18">
       <c r="A105" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" ht="18">
       <c r="A106" s="16" t="s">
         <v>151</v>
       </c>
@@ -22744,6 +22946,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -22755,14 +22962,14 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="35" customHeight="1">
       <c r="A1" t="s">
         <v>376</v>
       </c>
@@ -22788,7 +22995,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -22816,7 +23023,7 @@
         <v>0.55500000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -22844,7 +23051,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -22872,7 +23079,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -22900,7 +23107,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -22928,7 +23135,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="22" t="s">
         <v>377</v>
       </c>
@@ -22964,5 +23171,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
     <sheet name="liar classifier" sheetId="2" r:id="rId2"/>
     <sheet name="data statistics summary" sheetId="3" r:id="rId3"/>
-    <sheet name="CNN 1 500" sheetId="5" r:id="rId4"/>
-    <sheet name="CNN 2 500" sheetId="4" r:id="rId5"/>
-    <sheet name="CNN1 1000" sheetId="6" r:id="rId6"/>
-    <sheet name="CNN2 1000" sheetId="7" r:id="rId7"/>
-    <sheet name="CNN binary" sheetId="8" r:id="rId8"/>
-    <sheet name="TF-IDF" sheetId="11" r:id="rId9"/>
-    <sheet name="Misinf detection results table" sheetId="10" r:id="rId10"/>
+    <sheet name="LWIC+LEXICON feature analysis" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId5"/>
+    <sheet name="CNN 1 500" sheetId="5" r:id="rId6"/>
+    <sheet name="CNN 2 500" sheetId="4" r:id="rId7"/>
+    <sheet name="CNN1 1000" sheetId="6" r:id="rId8"/>
+    <sheet name="CNN2 1000" sheetId="7" r:id="rId9"/>
+    <sheet name="CNN binary" sheetId="8" r:id="rId10"/>
+    <sheet name="TF-IDF" sheetId="11" r:id="rId11"/>
+    <sheet name="Misinf detection results table" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="511">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4236,6 +4238,399 @@
   </si>
   <si>
     <t xml:space="preserve">Test items per class </t>
+  </si>
+  <si>
+    <t>act_adverbs.txt</t>
+  </si>
+  <si>
+    <t>assertives_hooper1975.txt</t>
+  </si>
+  <si>
+    <t>comparative_forms.txt</t>
+  </si>
+  <si>
+    <t>factives_hooper1975.txt</t>
+  </si>
+  <si>
+    <t>hedges_hyland2005.txt</t>
+  </si>
+  <si>
+    <t>implicatives_karttunen1971.txt</t>
+  </si>
+  <si>
+    <t>manner_adverbs.txt</t>
+  </si>
+  <si>
+    <t>modal_adverbs.txt</t>
+  </si>
+  <si>
+    <t>negative-HuLui.txt</t>
+  </si>
+  <si>
+    <t>negative_mpqa.txt</t>
+  </si>
+  <si>
+    <t>neutral_mpqa.txt</t>
+  </si>
+  <si>
+    <t>posative_mpqa.txt</t>
+  </si>
+  <si>
+    <t>positive-HuLui.txt</t>
+  </si>
+  <si>
+    <t>report_verbs.txt</t>
+  </si>
+  <si>
+    <t>superlative_forms.txt</t>
+  </si>
+  <si>
+    <t>Analytic</t>
+  </si>
+  <si>
+    <t>Clout</t>
+  </si>
+  <si>
+    <t>Authentic</t>
+  </si>
+  <si>
+    <t>Tone</t>
+  </si>
+  <si>
+    <t>Sixltr</t>
+  </si>
+  <si>
+    <t>Dic</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>pronoun</t>
+  </si>
+  <si>
+    <t>ppron</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>shehe</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>ipron</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>prep</t>
+  </si>
+  <si>
+    <t>auxverb</t>
+  </si>
+  <si>
+    <t>adverb</t>
+  </si>
+  <si>
+    <t>conj</t>
+  </si>
+  <si>
+    <t>negate</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>adj</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>interrog</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>posemo</t>
+  </si>
+  <si>
+    <t>negemo</t>
+  </si>
+  <si>
+    <t>anx</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>cogproc</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>discrep</t>
+  </si>
+  <si>
+    <t>tentat</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>differ</t>
+  </si>
+  <si>
+    <t>percept</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>sexual</t>
+  </si>
+  <si>
+    <t>ingest</t>
+  </si>
+  <si>
+    <t>drives</t>
+  </si>
+  <si>
+    <t>affiliation</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>focuspast</t>
+  </si>
+  <si>
+    <t>focuspresent</t>
+  </si>
+  <si>
+    <t>focusfuture</t>
+  </si>
+  <si>
+    <t>relativ</t>
+  </si>
+  <si>
+    <t>motion</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>leisure</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>relig</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>netspeak</t>
+  </si>
+  <si>
+    <t>assent</t>
+  </si>
+  <si>
+    <t>nonflu</t>
+  </si>
+  <si>
+    <t>filler</t>
+  </si>
+  <si>
+    <t>Ratio of class 1 to class 2 (in True to False news text)</t>
+  </si>
+  <si>
+    <t>Lexicon size</t>
+  </si>
+  <si>
+    <t>1/Ratio</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>report_verbs (lexicon)</t>
+  </si>
+  <si>
+    <t>Usage in True to False News</t>
+  </si>
+  <si>
+    <t>Usage in False to True</t>
+  </si>
+  <si>
+    <t>he, him, his, she, her, hers</t>
+  </si>
+  <si>
+    <t>boy, boyfriend, brother, dad</t>
+  </si>
+  <si>
+    <t>listen, load, opera, say, speak</t>
+  </si>
+  <si>
+    <t>acne, dr, salty,spine, insulin, pork</t>
+  </si>
+  <si>
+    <t>bones, thirsty, face, hairy, tendon, heart</t>
+  </si>
+  <si>
+    <t>pain, pill, alive, overweigth, coma, heals</t>
+  </si>
+  <si>
+    <t>demon, soul, god, holy, sunni, mecca</t>
+  </si>
+  <si>
+    <t>taste, tea, wines, water, cream, eat</t>
+  </si>
+  <si>
+    <t>plz, atm, yea, gunna, btw, retweet, fb</t>
+  </si>
+  <si>
+    <t>absolutely, awesome, yea, agree, ok</t>
+  </si>
+  <si>
+    <t>answer, ask, decide, describe, acknowledge, learn</t>
+  </si>
+  <si>
+    <t>Example words</t>
+  </si>
+  <si>
+    <t>SheHe</t>
+  </si>
+  <si>
+    <t>bi, gay, sexual, nude, aids, viagra</t>
+  </si>
+  <si>
+    <t>1.0    0.015892</t>
+  </si>
+  <si>
+    <t>2.0    0.012535</t>
+  </si>
+  <si>
+    <t>Name: 52, dtype: float64</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>1.0    0.007291</t>
+  </si>
+  <si>
+    <t>2.0    0.007118</t>
+  </si>
+  <si>
+    <t>Name: 51, dtype: float64</t>
+  </si>
+  <si>
+    <t>Big sample</t>
+  </si>
+  <si>
+    <t>Training data</t>
+  </si>
+  <si>
+    <t>Random baseline</t>
+  </si>
+  <si>
+    <t>Linguistic baseline (TF-IDF)</t>
+  </si>
+  <si>
+    <t>Binary classification</t>
+  </si>
+  <si>
+    <t>Fine-grain classification</t>
+  </si>
+  <si>
+    <t>Deep Learning model (CNN)</t>
   </si>
 </sst>
 </file>
@@ -4363,7 +4758,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4418,6 +4813,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4428,7 +4829,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4536,8 +4937,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4597,8 +5002,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4652,6 +5058,8 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4705,6 +5113,8 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5012,11 +5422,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1342754992"/>
-        <c:axId val="843519648"/>
+        <c:axId val="1005107488"/>
+        <c:axId val="1005038736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1342754992"/>
+        <c:axId val="1005107488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843519648"/>
+        <c:crossAx val="1005038736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5067,7 +5477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843519648"/>
+        <c:axId val="1005038736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5118,7 +5528,408 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342754992"/>
+        <c:crossAx val="1005107488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Classification accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.784867718871743"/>
+          <c:y val="0.657407407407407"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Misinf detection results table'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fine-grain classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Misinf detection results table'!$A$12:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Random baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linguistic baseline (TF-IDF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deep Learning model (CNN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Misinf detection results table'!$B$12:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Misinf detection results table'!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Binary classification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Misinf detection results table'!$A$12:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Random baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Linguistic baseline (TF-IDF)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deep Learning model (CNN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Misinf detection results table'!$C$12:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1006082064"/>
+        <c:axId val="1006436720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1006082064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1006436720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1006436720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1006082064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5146,7 +5957,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5494,11 +6305,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339221376"/>
-        <c:axId val="1339224208"/>
+        <c:axId val="1005098800"/>
+        <c:axId val="1002772688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339221376"/>
+        <c:axId val="1005098800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,7 +6352,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339224208"/>
+        <c:crossAx val="1002772688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5549,7 +6360,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339224208"/>
+        <c:axId val="1002772688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5600,7 +6411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339221376"/>
+        <c:crossAx val="1005098800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5614,7 +6425,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6024,11 +6834,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339192720"/>
-        <c:axId val="1342283648"/>
+        <c:axId val="1541266800"/>
+        <c:axId val="1541269632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339192720"/>
+        <c:axId val="1541266800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6071,7 +6881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342283648"/>
+        <c:crossAx val="1541269632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6079,7 +6889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342283648"/>
+        <c:axId val="1541269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6130,7 +6940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339192720"/>
+        <c:crossAx val="1541266800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6457,11 +7267,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="878814672"/>
-        <c:axId val="878969088"/>
+        <c:axId val="864050640"/>
+        <c:axId val="873050400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="878814672"/>
+        <c:axId val="864050640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,7 +7314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878969088"/>
+        <c:crossAx val="873050400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6512,7 +7322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="878969088"/>
+        <c:axId val="873050400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6563,7 +7373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="878814672"/>
+        <c:crossAx val="864050640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6658,7 +7468,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7041,11 +7850,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339106016"/>
-        <c:axId val="1342849408"/>
+        <c:axId val="873077072"/>
+        <c:axId val="873079904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339106016"/>
+        <c:axId val="873077072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7088,7 +7897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1342849408"/>
+        <c:crossAx val="873079904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7096,7 +7905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1342849408"/>
+        <c:axId val="873079904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7147,7 +7956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339106016"/>
+        <c:crossAx val="873077072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,7 +7970,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7243,7 +8051,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7758,11 +8565,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1339273584"/>
-        <c:axId val="1339276864"/>
+        <c:axId val="1341286240"/>
+        <c:axId val="1612333728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1339273584"/>
+        <c:axId val="1341286240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7805,7 +8612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339276864"/>
+        <c:crossAx val="1612333728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7813,7 +8620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1339276864"/>
+        <c:axId val="1612333728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7864,7 +8671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1339273584"/>
+        <c:crossAx val="1341286240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7878,7 +8685,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7960,7 +8766,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8511,11 +9316,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="843785472"/>
-        <c:axId val="843436224"/>
+        <c:axId val="1612006704"/>
+        <c:axId val="1612008480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="843785472"/>
+        <c:axId val="1612006704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8558,7 +9363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843436224"/>
+        <c:crossAx val="1612008480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8566,7 +9371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="843436224"/>
+        <c:axId val="1612008480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,7 +9422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="843785472"/>
+        <c:crossAx val="1612006704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8631,7 +9436,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8713,7 +9517,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9156,11 +9959,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="877090864"/>
-        <c:axId val="1584894464"/>
+        <c:axId val="1341797280"/>
+        <c:axId val="1612414800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="877090864"/>
+        <c:axId val="1341797280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9203,7 +10006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1584894464"/>
+        <c:crossAx val="1612414800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9211,7 +10014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1584894464"/>
+        <c:axId val="1612414800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9262,7 +10065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877090864"/>
+        <c:crossAx val="1341797280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9276,7 +10079,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9797,11 +10599,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="809375328"/>
-        <c:axId val="809377104"/>
+        <c:axId val="1004722192"/>
+        <c:axId val="1004724240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="809375328"/>
+        <c:axId val="1004722192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9844,7 +10646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809377104"/>
+        <c:crossAx val="1004724240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9852,7 +10654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809377104"/>
+        <c:axId val="1004724240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9903,7 +10705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809375328"/>
+        <c:crossAx val="1004722192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9985,6 +10787,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10849,6 +11691,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -15174,6 +16521,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364067</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1701801</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16040,10 +17422,1857 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="81.6640625" customWidth="1"/>
+    <col min="18" max="18" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>0.16198678944792</v>
+      </c>
+      <c r="I4">
+        <v>0.999285714285714</v>
+      </c>
+      <c r="J4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="L4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4">
+        <v>0.6925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>0.12285625364099199</v>
+      </c>
+      <c r="I5">
+        <v>0.999285714285714</v>
+      </c>
+      <c r="J5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L5" t="s">
+        <v>278</v>
+      </c>
+      <c r="M5">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0.21684690543583399</v>
+      </c>
+      <c r="I6">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="L6" t="s">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>0.151485529882567</v>
+      </c>
+      <c r="I7">
+        <v>0.998571428571428</v>
+      </c>
+      <c r="J7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M7">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>0.13854141337530901</v>
+      </c>
+      <c r="I8">
+        <v>0.999285714285714</v>
+      </c>
+      <c r="J8" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8">
+        <v>0.72</v>
+      </c>
+      <c r="L8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>2.1419730782508799E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.998571428571428</v>
+      </c>
+      <c r="J11" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="L11" t="s">
+        <v>286</v>
+      </c>
+      <c r="M11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>6.5224149482590796E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.998571428571428</v>
+      </c>
+      <c r="J12" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12">
+        <v>0.6825</v>
+      </c>
+      <c r="L12" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>8.8478933487619593E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.98714285782405298</v>
+      </c>
+      <c r="J13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="L13" t="s">
+        <v>290</v>
+      </c>
+      <c r="M13">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>2.9002835303544999E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.998571428571428</v>
+      </c>
+      <c r="J14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K14">
+        <v>0.70250000000000001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>292</v>
+      </c>
+      <c r="M14">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>0.28582206147057598</v>
+      </c>
+      <c r="I15">
+        <v>0.91642857210976703</v>
+      </c>
+      <c r="J15" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="L15" t="s">
+        <v>294</v>
+      </c>
+      <c r="M15">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>338</v>
+      </c>
+      <c r="I21">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J21" t="s">
+        <v>339</v>
+      </c>
+      <c r="K21">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="L21" t="s">
+        <v>340</v>
+      </c>
+      <c r="M21">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J22" t="s">
+        <v>342</v>
+      </c>
+      <c r="K22">
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="L22" t="s">
+        <v>343</v>
+      </c>
+      <c r="M22">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>344</v>
+      </c>
+      <c r="I23">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J23" t="s">
+        <v>345</v>
+      </c>
+      <c r="K23">
+        <v>0.755</v>
+      </c>
+      <c r="L23" t="s">
+        <v>346</v>
+      </c>
+      <c r="M23">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I24">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J24" t="s">
+        <v>348</v>
+      </c>
+      <c r="K24">
+        <v>0.755</v>
+      </c>
+      <c r="L24" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>350</v>
+      </c>
+      <c r="I25">
+        <v>0.997142857142857</v>
+      </c>
+      <c r="J25" t="s">
+        <v>351</v>
+      </c>
+      <c r="K25">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="L25" t="s">
+        <v>352</v>
+      </c>
+      <c r="M25">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>297</v>
+      </c>
+      <c r="I26">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K26">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="L26" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26">
+        <v>0.74250000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>300</v>
+      </c>
+      <c r="I27">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J27" t="s">
+        <v>301</v>
+      </c>
+      <c r="K27">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="L27" t="s">
+        <v>302</v>
+      </c>
+      <c r="M27">
+        <v>0.72875000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>303</v>
+      </c>
+      <c r="I28">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J28" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="L28" t="s">
+        <v>305</v>
+      </c>
+      <c r="M28">
+        <v>0.73875000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>306</v>
+      </c>
+      <c r="I29">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="L29" t="s">
+        <v>308</v>
+      </c>
+      <c r="M29">
+        <v>0.75124999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>309</v>
+      </c>
+      <c r="I30">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J30" t="s">
+        <v>310</v>
+      </c>
+      <c r="K30">
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="L30" t="s">
+        <v>311</v>
+      </c>
+      <c r="M30">
+        <v>0.74124999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <f>AVERAGE(K21:K30)</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" ref="L31:M31" si="0">AVERAGE(L21:L30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>0.74037500000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f>STDEV(K21:K30)</f>
+        <v>6.5085413965888751E-3</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" ref="L32:M32" si="1">STDEV(L26:L30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>8.0816149376222949E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>353</v>
+      </c>
+      <c r="I36">
+        <v>0.97892857142857104</v>
+      </c>
+      <c r="J36" t="s">
+        <v>354</v>
+      </c>
+      <c r="K36">
+        <v>0.73</v>
+      </c>
+      <c r="L36" t="s">
+        <v>355</v>
+      </c>
+      <c r="M36">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J37" t="s">
+        <v>357</v>
+      </c>
+      <c r="K37">
+        <v>0.74124999999999996</v>
+      </c>
+      <c r="L37" t="s">
+        <v>358</v>
+      </c>
+      <c r="M37">
+        <v>0.73624999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>359</v>
+      </c>
+      <c r="I38">
+        <v>0.997142857142857</v>
+      </c>
+      <c r="J38" t="s">
+        <v>360</v>
+      </c>
+      <c r="K38">
+        <v>0.72624999999999995</v>
+      </c>
+      <c r="L38" t="s">
+        <v>361</v>
+      </c>
+      <c r="M38">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>362</v>
+      </c>
+      <c r="I39">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J39" t="s">
+        <v>363</v>
+      </c>
+      <c r="K39">
+        <v>0.74</v>
+      </c>
+      <c r="L39" t="s">
+        <v>364</v>
+      </c>
+      <c r="M39">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>312</v>
+      </c>
+      <c r="I41">
+        <v>0.99821428571428505</v>
+      </c>
+      <c r="J41" t="s">
+        <v>313</v>
+      </c>
+      <c r="K41">
+        <v>0.72375</v>
+      </c>
+      <c r="L41" t="s">
+        <v>314</v>
+      </c>
+      <c r="M41">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>315</v>
+      </c>
+      <c r="I42">
+        <v>0.996428571428571</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42">
+        <v>0.72875000000000001</v>
+      </c>
+      <c r="L42" t="s">
+        <v>317</v>
+      </c>
+      <c r="M42">
+        <v>0.73375000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>318</v>
+      </c>
+      <c r="I43">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43">
+        <v>0.73375000000000001</v>
+      </c>
+      <c r="L43" t="s">
+        <v>320</v>
+      </c>
+      <c r="M43">
+        <v>0.70625000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>321</v>
+      </c>
+      <c r="I44">
+        <v>0.997857142857142</v>
+      </c>
+      <c r="J44" t="s">
+        <v>322</v>
+      </c>
+      <c r="K44">
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="L44" t="s">
+        <v>323</v>
+      </c>
+      <c r="M44">
+        <v>0.73250000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>324</v>
+      </c>
+      <c r="I45">
+        <v>0.99678571428571405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45">
+        <v>0.75</v>
+      </c>
+      <c r="L45" t="s">
+        <v>326</v>
+      </c>
+      <c r="M45">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <f>AVERAGE(K36:K45)</f>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" ref="L46:M46" si="2">AVERAGE(L36:L45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>0.72262500000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <f>STDEV(K36:K45)</f>
+        <v>1.000347161961508E-2</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" ref="L47:M47" si="3">STDEV(L36:L45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>1.1835827201997986E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19"/>
+    </row>
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="19"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+    </row>
+    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>200</v>
+      </c>
+      <c r="H2" s="23">
+        <f>B2/G2</f>
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>149</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
+        <v>200</v>
+      </c>
+      <c r="H3" s="23">
+        <f>C3/G3</f>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H4" s="23">
+        <f>D4/G4</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H5" s="23">
+        <f>E5/G5</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H6" s="23">
+        <f>F6/G6</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="22">
+        <f>SUM(B2:B6)</f>
+        <v>143</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
+        <v>257</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="E7" s="22">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H7" s="24">
+        <f>AVERAGE(H2:H6)</f>
+        <v>0.56700000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16188,14 +19417,66 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>504</v>
+      </c>
       <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16682,7 +19963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -16885,6 +20166,1419 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2">
+        <v>1.3325726838</v>
+      </c>
+      <c r="D2">
+        <f>1/C2</f>
+        <v>0.75042810959352191</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="I2" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3">
+        <v>1.3199530822400001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">1/C3</f>
+        <v>0.75760268562195399</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.63</v>
+      </c>
+      <c r="I3" s="25">
+        <v>1.58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4">
+        <v>1.30422322382</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.76673991210726455</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="I4" s="25">
+        <v>1.52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5">
+        <v>1.2678306854200001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.78874885384930193</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B6">
+        <v>181</v>
+      </c>
+      <c r="C6">
+        <v>1.2245874404299999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.81660154839483035</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1.44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7">
+        <v>1.1968968095700001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.8354939139316967</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1.32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8">
+        <v>2007</v>
+      </c>
+      <c r="C8">
+        <v>1.16431715231</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.85887251425954214</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1.29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>1.15072091513</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.86902044349044216</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1.22</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10">
+        <v>1.1438202619</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.87426323287795227</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="H10" s="24">
+        <v>1.27</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11">
+        <v>1.1370710669399999</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.87945250659760843</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12">
+        <v>1.13553469131</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.88064240366479551</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1.32</v>
+      </c>
+      <c r="I12" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>1.1311607049800001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.8840476827010012</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1.33</v>
+      </c>
+      <c r="I13" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14">
+        <v>1.12684572104</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.88743293010605717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15">
+        <v>3078</v>
+      </c>
+      <c r="C15">
+        <v>1.1249870390100001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.88889912978909524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16">
+        <v>1.1170499890200001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.89521508422135232</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17">
+        <v>1.11644585427</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.89569950586977698</v>
+      </c>
+      <c r="G17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18">
+        <v>1.1154703163199999</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.89648284259060962</v>
+      </c>
+      <c r="G18" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C19">
+        <v>1.11509456557</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.89678492827093337</v>
+      </c>
+      <c r="G19" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B20">
+        <v>2304</v>
+      </c>
+      <c r="C20">
+        <v>1.11270321249</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.89871224309868436</v>
+      </c>
+      <c r="G20">
+        <v>1.2678306854200001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21">
+        <v>1.11082083053</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.90023518871434494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22">
+        <v>1.11071603191</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.9003201279812163</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23">
+        <v>1.10645614648</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.90378638428764491</v>
+      </c>
+      <c r="G23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C24">
+        <v>1.1042478556599999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.90559378936018686</v>
+      </c>
+      <c r="G24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25">
+        <v>1.0938834401699999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.91417418280378249</v>
+      </c>
+      <c r="G25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26">
+        <v>1.0866162750899999</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.9202880749390342</v>
+      </c>
+      <c r="G26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>451</v>
+      </c>
+      <c r="C27">
+        <v>1.08465511939</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.92195203998335495</v>
+      </c>
+      <c r="G27">
+        <v>1.02416239376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28">
+        <v>1.0841469054299999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.922384222093384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29">
+        <v>1.08414482409</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.92238599288556422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30">
+        <v>175</v>
+      </c>
+      <c r="C30">
+        <v>1.0751383988800001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.93011281249160693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31">
+        <v>1.07141143341</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.93334826269053561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>425</v>
+      </c>
+      <c r="C32">
+        <v>1.0690381526599999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.93542030984748492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33">
+        <v>1.06711315558</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.93710774229606186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B34">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>1.06147437477</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.94208586073185219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>409</v>
+      </c>
+      <c r="C35">
+        <v>1.0611481008100001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.94237552631595511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36">
+        <v>1.0599780542799999</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.94341575843214931</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37">
+        <v>1.05909905604</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.94419874543088256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38">
+        <v>1.0565819861400001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.94644808743454878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>462</v>
+      </c>
+      <c r="C39">
+        <v>1.0544625010999999</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.94835046192426431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40">
+        <v>1.0543334747999999</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.94846651832779316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41">
+        <v>1.0497035800900001</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.95264988989964328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C42">
+        <v>1.0485606039699999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.95368831921956387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43">
+        <v>1.0470579071599999</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.95505701562615763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C44">
+        <v>1.04460580789</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.95729890878158208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45">
+        <v>1.04269048111</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.95905737907518473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>458</v>
+      </c>
+      <c r="C46">
+        <v>1.0424942740400001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.95923788254939657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47">
+        <v>1.04139057956</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.9602545093335797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>423</v>
+      </c>
+      <c r="C48">
+        <v>1.03793278532</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.9634535242970429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49">
+        <v>1.0362775265999999</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.96499246035082364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50">
+        <v>1.03492467392</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.96625389769893566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51">
+        <v>4784</v>
+      </c>
+      <c r="C51">
+        <v>1.0342882444799999</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.96684846350812126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52">
+        <v>1.02416239376</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.97640765379863959</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>380</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>1.0187721159900001</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.98157378309107124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54">
+        <v>1.01658415613</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.98368639130366375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>400</v>
+      </c>
+      <c r="C55">
+        <v>1.01390560579</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.98628510809034808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C56">
+        <v>1.0107869310099999</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.98932818512085285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57">
+        <v>1.00226183343</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.99774327091528625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>418</v>
+      </c>
+      <c r="C58">
+        <v>1.0018523617599999</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.99815106313993629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C59">
+        <v>0.99594718237400004</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.0040693097964688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>394</v>
+      </c>
+      <c r="B60">
+        <v>2306</v>
+      </c>
+      <c r="C60">
+        <v>0.99538693281799995</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.0046344461936427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C61">
+        <v>0.99366600151600004</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.0063743737577178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>395</v>
+      </c>
+      <c r="C62">
+        <v>0.989107297602</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.0110126600262765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>384</v>
+      </c>
+      <c r="B63">
+        <v>105</v>
+      </c>
+      <c r="C63">
+        <v>0.98832703262999999</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.0118108348599324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>398</v>
+      </c>
+      <c r="C64">
+        <v>0.98605307846199997</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.0141441894383147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>460</v>
+      </c>
+      <c r="C65">
+        <v>0.98600822470600002</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.0141903231062519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66">
+        <v>0.98450273213799999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1.0157412136666653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>438</v>
+      </c>
+      <c r="C67">
+        <v>0.98387670842800001</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D95" si="1">1/C67</f>
+        <v>1.0163875122094934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>421</v>
+      </c>
+      <c r="C68">
+        <v>0.97935845959300005</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>1.021076593768923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>433</v>
+      </c>
+      <c r="C69">
+        <v>0.96935699960800004</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>1.0316116770234205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70">
+        <v>0.96372772667200002</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>1.0376374699244748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="C71">
+        <v>0.96325464154899998</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>1.0381470868304461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>408</v>
+      </c>
+      <c r="C72">
+        <v>0.96065680708599999</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>1.0409544726314295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>443</v>
+      </c>
+      <c r="C73">
+        <v>0.95777616449299996</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>1.0440852853436287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>464</v>
+      </c>
+      <c r="C74">
+        <v>0.95734142286699997</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>1.044559418525157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>439</v>
+      </c>
+      <c r="C75">
+        <v>0.95425009456300003</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>1.0479433072081079</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>434</v>
+      </c>
+      <c r="C76">
+        <v>0.951958218523</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>1.0504662710423769</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>437</v>
+      </c>
+      <c r="C77">
+        <v>0.94788009051400002</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>1.0549857624477978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>468</v>
+      </c>
+      <c r="C78">
+        <v>0.93850297135500005</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>1.0655267276950773</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79">
+        <v>128</v>
+      </c>
+      <c r="C79">
+        <v>0.93330593263100003</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>1.0714600272399304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80">
+        <v>32</v>
+      </c>
+      <c r="C80">
+        <v>0.92670807083499995</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>1.0790884761572879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>429</v>
+      </c>
+      <c r="C81">
+        <v>0.91687208983799995</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>1.090664675131171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>435</v>
+      </c>
+      <c r="C82">
+        <v>0.89875477970999995</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>1.1126505500451065</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>473</v>
+      </c>
+      <c r="C83">
+        <v>0.88610038609999997</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>1.1285403050113849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>382</v>
+      </c>
+      <c r="B84">
+        <v>2122</v>
+      </c>
+      <c r="C84">
+        <v>0.86642737811799997</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>1.1541648212596169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>420</v>
+      </c>
+      <c r="C85">
+        <v>0.86626148511000001</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>1.1543858490638281</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>406</v>
+      </c>
+      <c r="C86">
+        <v>0.85227578173999996</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>1.1733291282293712</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>472</v>
+      </c>
+      <c r="C87">
+        <v>0.83696874297299995</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>1.1947877485220011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>467</v>
+      </c>
+      <c r="C88">
+        <v>0.83657327337700005</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>1.1953525552678659</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>470</v>
+      </c>
+      <c r="C89">
+        <v>0.77633276010300001</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>1.2881074345842689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>445</v>
+      </c>
+      <c r="C90">
+        <v>0.75772850441399997</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>1.3197339075601546</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>447</v>
+      </c>
+      <c r="C91">
+        <v>0.69301788805499998</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>1.4429641965037372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>466</v>
+      </c>
+      <c r="C92">
+        <v>0.66741521887599997</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>1.4983176465231181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93">
+        <v>0.65956059573799997</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>1.5161609205611704</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>446</v>
+      </c>
+      <c r="C94">
+        <v>0.63244589311099997</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>1.5811629277581394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>448</v>
+      </c>
+      <c r="C95">
+        <v>0.58687757829300002</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>1.703932876271425</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="G2:J13">
+    <sortCondition ref="H2:H13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
@@ -18342,7 +23036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
@@ -19829,7 +24523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
@@ -20491,7 +25185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
@@ -21118,1851 +25812,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M106"/>
-  <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:A106"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="81.6640625" customWidth="1"/>
-    <col min="18" max="18" width="38.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4">
-        <v>0.16198678944792</v>
-      </c>
-      <c r="I4">
-        <v>0.999285714285714</v>
-      </c>
-      <c r="J4" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4">
-        <v>0.70750000000000002</v>
-      </c>
-      <c r="L4" t="s">
-        <v>276</v>
-      </c>
-      <c r="M4">
-        <v>0.6925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>0.12285625364099199</v>
-      </c>
-      <c r="I5">
-        <v>0.999285714285714</v>
-      </c>
-      <c r="J5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K5">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="L5" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>0.21684690543583399</v>
-      </c>
-      <c r="I6">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J6" t="s">
-        <v>279</v>
-      </c>
-      <c r="K6">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="L6" t="s">
-        <v>280</v>
-      </c>
-      <c r="M6">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
-        <v>0.151485529882567</v>
-      </c>
-      <c r="I7">
-        <v>0.998571428571428</v>
-      </c>
-      <c r="J7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7">
-        <v>0.7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M7">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8">
-        <v>0.13854141337530901</v>
-      </c>
-      <c r="I8">
-        <v>0.999285714285714</v>
-      </c>
-      <c r="J8" t="s">
-        <v>283</v>
-      </c>
-      <c r="K8">
-        <v>0.72</v>
-      </c>
-      <c r="L8" t="s">
-        <v>284</v>
-      </c>
-      <c r="M8">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11">
-        <v>2.1419730782508799E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.998571428571428</v>
-      </c>
-      <c r="J11" t="s">
-        <v>285</v>
-      </c>
-      <c r="K11">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="L11" t="s">
-        <v>286</v>
-      </c>
-      <c r="M11">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12">
-        <v>6.5224149482590796E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.998571428571428</v>
-      </c>
-      <c r="J12" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12">
-        <v>0.6825</v>
-      </c>
-      <c r="L12" t="s">
-        <v>288</v>
-      </c>
-      <c r="M12">
-        <v>0.68500000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>8.8478933487619593E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.98714285782405298</v>
-      </c>
-      <c r="J13" t="s">
-        <v>289</v>
-      </c>
-      <c r="K13">
-        <v>0.71750000000000003</v>
-      </c>
-      <c r="L13" t="s">
-        <v>290</v>
-      </c>
-      <c r="M13">
-        <v>0.6825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14">
-        <v>2.9002835303544999E-2</v>
-      </c>
-      <c r="I14">
-        <v>0.998571428571428</v>
-      </c>
-      <c r="J14" t="s">
-        <v>291</v>
-      </c>
-      <c r="K14">
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="L14" t="s">
-        <v>292</v>
-      </c>
-      <c r="M14">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15">
-        <v>0.28582206147057598</v>
-      </c>
-      <c r="I15">
-        <v>0.91642857210976703</v>
-      </c>
-      <c r="J15" t="s">
-        <v>293</v>
-      </c>
-      <c r="K15">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="L15" t="s">
-        <v>294</v>
-      </c>
-      <c r="M15">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" t="s">
-        <v>338</v>
-      </c>
-      <c r="I21">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J21" t="s">
-        <v>339</v>
-      </c>
-      <c r="K21">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="L21" t="s">
-        <v>340</v>
-      </c>
-      <c r="M21">
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>341</v>
-      </c>
-      <c r="I22">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J22" t="s">
-        <v>342</v>
-      </c>
-      <c r="K22">
-        <v>0.76624999999999999</v>
-      </c>
-      <c r="L22" t="s">
-        <v>343</v>
-      </c>
-      <c r="M22">
-        <v>0.74250000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" t="s">
-        <v>344</v>
-      </c>
-      <c r="I23">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J23" t="s">
-        <v>345</v>
-      </c>
-      <c r="K23">
-        <v>0.755</v>
-      </c>
-      <c r="L23" t="s">
-        <v>346</v>
-      </c>
-      <c r="M23">
-        <v>0.73375000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>347</v>
-      </c>
-      <c r="I24">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J24" t="s">
-        <v>348</v>
-      </c>
-      <c r="K24">
-        <v>0.755</v>
-      </c>
-      <c r="L24" t="s">
-        <v>349</v>
-      </c>
-      <c r="M24">
-        <v>0.73750000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" t="s">
-        <v>350</v>
-      </c>
-      <c r="I25">
-        <v>0.997142857142857</v>
-      </c>
-      <c r="J25" t="s">
-        <v>351</v>
-      </c>
-      <c r="K25">
-        <v>0.76124999999999998</v>
-      </c>
-      <c r="L25" t="s">
-        <v>352</v>
-      </c>
-      <c r="M25">
-        <v>0.74250000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I26">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J26" t="s">
-        <v>298</v>
-      </c>
-      <c r="K26">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="L26" t="s">
-        <v>299</v>
-      </c>
-      <c r="M26">
-        <v>0.74250000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>300</v>
-      </c>
-      <c r="I27">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J27" t="s">
-        <v>301</v>
-      </c>
-      <c r="K27">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="L27" t="s">
-        <v>302</v>
-      </c>
-      <c r="M27">
-        <v>0.72875000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>303</v>
-      </c>
-      <c r="I28">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J28" t="s">
-        <v>304</v>
-      </c>
-      <c r="K28">
-        <v>0.76124999999999998</v>
-      </c>
-      <c r="L28" t="s">
-        <v>305</v>
-      </c>
-      <c r="M28">
-        <v>0.73875000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>306</v>
-      </c>
-      <c r="I29">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J29" t="s">
-        <v>307</v>
-      </c>
-      <c r="K29">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="L29" t="s">
-        <v>308</v>
-      </c>
-      <c r="M29">
-        <v>0.75124999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>309</v>
-      </c>
-      <c r="I30">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J30" t="s">
-        <v>310</v>
-      </c>
-      <c r="K30">
-        <v>0.77124999999999999</v>
-      </c>
-      <c r="L30" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30">
-        <v>0.74124999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K31">
-        <f>AVERAGE(K21:K30)</f>
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" ref="L31:M31" si="0">AVERAGE(L21:L30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>0.74037500000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K32">
-        <f>STDEV(K21:K30)</f>
-        <v>6.5085413965888751E-3</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" ref="L32:M32" si="1">STDEV(L26:L30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>8.0816149376222949E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s">
-        <v>353</v>
-      </c>
-      <c r="I36">
-        <v>0.97892857142857104</v>
-      </c>
-      <c r="J36" t="s">
-        <v>354</v>
-      </c>
-      <c r="K36">
-        <v>0.73</v>
-      </c>
-      <c r="L36" t="s">
-        <v>355</v>
-      </c>
-      <c r="M36">
-        <v>0.70499999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" t="s">
-        <v>356</v>
-      </c>
-      <c r="I37">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J37" t="s">
-        <v>357</v>
-      </c>
-      <c r="K37">
-        <v>0.74124999999999996</v>
-      </c>
-      <c r="L37" t="s">
-        <v>358</v>
-      </c>
-      <c r="M37">
-        <v>0.73624999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s">
-        <v>359</v>
-      </c>
-      <c r="I38">
-        <v>0.997142857142857</v>
-      </c>
-      <c r="J38" t="s">
-        <v>360</v>
-      </c>
-      <c r="K38">
-        <v>0.72624999999999995</v>
-      </c>
-      <c r="L38" t="s">
-        <v>361</v>
-      </c>
-      <c r="M38">
-        <v>0.71250000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s">
-        <v>362</v>
-      </c>
-      <c r="I39">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J39" t="s">
-        <v>363</v>
-      </c>
-      <c r="K39">
-        <v>0.74</v>
-      </c>
-      <c r="L39" t="s">
-        <v>364</v>
-      </c>
-      <c r="M39">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s">
-        <v>365</v>
-      </c>
-      <c r="I40">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J40" t="s">
-        <v>366</v>
-      </c>
-      <c r="K40">
-        <v>0.75249999999999995</v>
-      </c>
-      <c r="L40" t="s">
-        <v>367</v>
-      </c>
-      <c r="M40">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s">
-        <v>312</v>
-      </c>
-      <c r="I41">
-        <v>0.99821428571428505</v>
-      </c>
-      <c r="J41" t="s">
-        <v>313</v>
-      </c>
-      <c r="K41">
-        <v>0.72375</v>
-      </c>
-      <c r="L41" t="s">
-        <v>314</v>
-      </c>
-      <c r="M41">
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>315</v>
-      </c>
-      <c r="I42">
-        <v>0.996428571428571</v>
-      </c>
-      <c r="J42" t="s">
-        <v>316</v>
-      </c>
-      <c r="K42">
-        <v>0.72875000000000001</v>
-      </c>
-      <c r="L42" t="s">
-        <v>317</v>
-      </c>
-      <c r="M42">
-        <v>0.73375000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>318</v>
-      </c>
-      <c r="I43">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J43" t="s">
-        <v>319</v>
-      </c>
-      <c r="K43">
-        <v>0.73375000000000001</v>
-      </c>
-      <c r="L43" t="s">
-        <v>320</v>
-      </c>
-      <c r="M43">
-        <v>0.70625000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s">
-        <v>321</v>
-      </c>
-      <c r="I44">
-        <v>0.997857142857142</v>
-      </c>
-      <c r="J44" t="s">
-        <v>322</v>
-      </c>
-      <c r="K44">
-        <v>0.74375000000000002</v>
-      </c>
-      <c r="L44" t="s">
-        <v>323</v>
-      </c>
-      <c r="M44">
-        <v>0.73250000000000004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s">
-        <v>324</v>
-      </c>
-      <c r="I45">
-        <v>0.99678571428571405</v>
-      </c>
-      <c r="J45" t="s">
-        <v>325</v>
-      </c>
-      <c r="K45">
-        <v>0.75</v>
-      </c>
-      <c r="L45" t="s">
-        <v>326</v>
-      </c>
-      <c r="M45">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K46">
-        <f>AVERAGE(K36:K45)</f>
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="L46" t="e">
-        <f t="shared" ref="L46:M46" si="2">AVERAGE(L36:L45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="2"/>
-        <v>0.72262500000000007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K47">
-        <f>STDEV(K36:K45)</f>
-        <v>1.000347161961508E-2</v>
-      </c>
-      <c r="L47" t="e">
-        <f t="shared" ref="L47:M47" si="3">STDEV(L36:L45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="3"/>
-        <v>1.1835827201997986E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-    </row>
-    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-    </row>
-    <row r="78" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A98" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A104" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <f>SUM(B2:F2)</f>
-        <v>200</v>
-      </c>
-      <c r="H2" s="23">
-        <f>B2/G2</f>
-        <v>0.55500000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>149</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G7" si="0">SUM(B3:F3)</f>
-        <v>200</v>
-      </c>
-      <c r="H3" s="23">
-        <f>C3/G3</f>
-        <v>0.745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>105</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>28</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H4" s="23">
-        <f>D4/G4</f>
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>106</v>
-      </c>
-      <c r="F5">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H5" s="23">
-        <f>E5/G5</f>
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H6" s="23">
-        <f>F6/G6</f>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="22">
-        <f>SUM(B2:B6)</f>
-        <v>143</v>
-      </c>
-      <c r="C7" s="22">
-        <f t="shared" ref="C7:F7" si="1">SUM(C2:C6)</f>
-        <v>257</v>
-      </c>
-      <c r="D7" s="22">
-        <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="E7" s="22">
-        <f t="shared" si="1"/>
-        <v>197</v>
-      </c>
-      <c r="F7" s="22">
-        <f t="shared" si="1"/>
-        <v>201</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H7" s="24">
-        <f>AVERAGE(H2:H6)</f>
-        <v>0.56700000000000006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rashkin classifier" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="513">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4631,6 +4631,12 @@
   </si>
   <si>
     <t>Deep Learning model (CNN)</t>
+  </si>
+  <si>
+    <t>Trained on Rashkin xtrain/Tested on our rumor-v02 (EXPECTED)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -4758,7 +4764,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4819,6 +4825,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4829,7 +4841,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4941,8 +4953,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5003,8 +5019,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -5060,6 +5077,8 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5115,6 +5134,8 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5163,8 +5184,150 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Trusted (test)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Propaganda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Satire</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hoax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$B$14:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>693.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Propaganda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$14:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Trusted (test)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Propaganda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Satire</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hoax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>218.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Satire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5194,138 +5357,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'rashkin classifier'!$B$14:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>693.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Propaganda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$14:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Trusted (test)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Propaganda</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Satire</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hoax</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'rashkin classifier'!$C$14:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>633.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>218.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Satire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$14:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Trusted (test)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Propaganda</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Satire</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hoax</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'rashkin classifier'!$D$14:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -5361,9 +5392,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="7030A0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5422,11 +5458,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1005107488"/>
-        <c:axId val="1005038736"/>
+        <c:axId val="1416438800"/>
+        <c:axId val="1529339536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1005107488"/>
+        <c:axId val="1416438800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,7 +5505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005038736"/>
+        <c:crossAx val="1529339536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5477,7 +5513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005038736"/>
+        <c:axId val="1529339536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5528,7 +5564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005107488"/>
+        <c:crossAx val="1416438800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5542,6 +5578,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5823,11 +5860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1006082064"/>
-        <c:axId val="1006436720"/>
+        <c:axId val="1146770464"/>
+        <c:axId val="1146772784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1006082064"/>
+        <c:axId val="1146770464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5870,7 +5907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006436720"/>
+        <c:crossAx val="1146772784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5878,7 +5915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1006436720"/>
+        <c:axId val="1146772784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5929,7 +5966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006082064"/>
+        <c:crossAx val="1146770464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5943,7 +5980,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6046,8 +6082,150 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Propaganda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$C$35:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Satire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6077,138 +6255,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'rashkin classifier'!$B$35:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Propaganda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$35:$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>mtrue </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mixture </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'rashkin classifier'!$C$35:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$D$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Satire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$35:$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>mtrue </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mixture </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'rashkin classifier'!$D$35:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6244,9 +6290,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="7030A0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6305,11 +6356,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1005098800"/>
-        <c:axId val="1002772688"/>
+        <c:axId val="1146524816"/>
+        <c:axId val="1146527376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1005098800"/>
+        <c:axId val="1146524816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6352,7 +6403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002772688"/>
+        <c:crossAx val="1146527376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6360,7 +6411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1002772688"/>
+        <c:axId val="1146527376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,7 +6462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005098800"/>
+        <c:crossAx val="1146524816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6425,6 +6476,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6527,8 +6579,174 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$41:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ftrue </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$B$41:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>651.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1307.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Propaganda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$41:$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>ftrue </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$C$41:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1199.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Satire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6564,162 +6782,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'rashkin classifier'!$B$41:$B$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>540.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>651.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1307.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>176.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$C$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Propaganda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$41:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ftrue </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'rashkin classifier'!$C$41:$C$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>189.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>422.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>497.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1199.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>154.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$D$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Satire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$41:$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ftrue </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'rashkin classifier'!$D$41:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6761,9 +6823,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="7030A0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6834,11 +6901,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1541266800"/>
-        <c:axId val="1541269632"/>
+        <c:axId val="1146519504"/>
+        <c:axId val="1146655904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1541266800"/>
+        <c:axId val="1146519504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6881,7 +6948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1541269632"/>
+        <c:crossAx val="1146655904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6889,7 +6956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1541269632"/>
+        <c:axId val="1146655904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6940,7 +7007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1541266800"/>
+        <c:crossAx val="1146519504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6954,6 +7021,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7056,8 +7124,126 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$66:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Legitimate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Satirical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$B$66:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$C$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Propaganda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$66:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Legitimate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Satirical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$C$66:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$D$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Satire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7081,114 +7267,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'rashkin classifier'!$B$66:$B$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$C$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Propaganda</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$66:$A$67</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Legitimate</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Satirical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'rashkin classifier'!$C$66:$C$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$D$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Satire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'rashkin classifier'!$A$66:$A$67</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Legitimate</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Satirical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>'rashkin classifier'!$D$66:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -7218,9 +7296,14 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="7030A0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -7267,11 +7350,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="864050640"/>
-        <c:axId val="873050400"/>
+        <c:axId val="1148873792"/>
+        <c:axId val="1148672320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="864050640"/>
+        <c:axId val="1148873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,7 +7397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873050400"/>
+        <c:crossAx val="1148672320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7322,7 +7405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873050400"/>
+        <c:axId val="1148672320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7373,7 +7456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864050640"/>
+        <c:crossAx val="1148873792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7387,6 +7470,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7468,6 +7552,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7850,11 +7935,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="873077072"/>
-        <c:axId val="873079904"/>
+        <c:axId val="1146683968"/>
+        <c:axId val="1146686800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="873077072"/>
+        <c:axId val="1146683968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7897,7 +7982,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873079904"/>
+        <c:crossAx val="1146686800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7905,7 +7990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873079904"/>
+        <c:axId val="1146686800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7956,7 +8041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873077072"/>
+        <c:crossAx val="1146683968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7970,6 +8055,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8565,11 +8651,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1341286240"/>
-        <c:axId val="1612333728"/>
+        <c:axId val="1146738400"/>
+        <c:axId val="1146880544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1341286240"/>
+        <c:axId val="1146738400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8612,7 +8698,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612333728"/>
+        <c:crossAx val="1146880544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8620,7 +8706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612333728"/>
+        <c:axId val="1146880544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8671,7 +8757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1341286240"/>
+        <c:crossAx val="1146738400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9316,11 +9402,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1612006704"/>
-        <c:axId val="1612008480"/>
+        <c:axId val="1533907568"/>
+        <c:axId val="1146860784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1612006704"/>
+        <c:axId val="1533907568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9363,7 +9449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612008480"/>
+        <c:crossAx val="1146860784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9371,7 +9457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612008480"/>
+        <c:axId val="1146860784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9422,7 +9508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612006704"/>
+        <c:crossAx val="1533907568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9959,11 +10045,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1341797280"/>
-        <c:axId val="1612414800"/>
+        <c:axId val="1148904704"/>
+        <c:axId val="1148906752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1341797280"/>
+        <c:axId val="1148904704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10006,7 +10092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1612414800"/>
+        <c:crossAx val="1148906752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10014,7 +10100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1612414800"/>
+        <c:axId val="1148906752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10065,7 +10151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1341797280"/>
+        <c:crossAx val="1148904704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10192,7 +10278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10599,11 +10684,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1004722192"/>
-        <c:axId val="1004724240"/>
+        <c:axId val="1146174880"/>
+        <c:axId val="1146176928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1004722192"/>
+        <c:axId val="1146174880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10646,7 +10731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1004724240"/>
+        <c:crossAx val="1146176928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10654,7 +10739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1004724240"/>
+        <c:axId val="1146176928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10705,7 +10790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1004722192"/>
+        <c:crossAx val="1146174880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10719,7 +10804,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16240,16 +16324,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16270,15 +16354,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16300,16 +16384,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16330,16 +16414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>869950</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16819,15 +16903,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -17051,7 +17136,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -17068,7 +17153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -17085,7 +17170,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -17102,7 +17187,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -17119,7 +17204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -17136,7 +17221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -17153,7 +17238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -17170,7 +17255,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -17186,26 +17271,8 @@
       <c r="E42">
         <v>58</v>
       </c>
-      <c r="R42">
-        <v>330</v>
-      </c>
-      <c r="S42">
-        <v>189</v>
-      </c>
-      <c r="T42">
-        <v>185</v>
-      </c>
-      <c r="U42">
-        <v>215</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -17221,26 +17288,8 @@
       <c r="E43">
         <v>254</v>
       </c>
-      <c r="R43">
-        <v>139</v>
-      </c>
-      <c r="S43">
-        <v>97</v>
-      </c>
-      <c r="T43">
-        <v>49</v>
-      </c>
-      <c r="U43">
-        <v>58</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -17256,26 +17305,8 @@
       <c r="E44">
         <v>345</v>
       </c>
-      <c r="R44">
-        <v>540</v>
-      </c>
-      <c r="S44">
-        <v>422</v>
-      </c>
-      <c r="T44">
-        <v>160</v>
-      </c>
-      <c r="U44">
-        <v>254</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -17291,26 +17322,8 @@
       <c r="E45">
         <v>776</v>
       </c>
-      <c r="R45">
-        <v>651</v>
-      </c>
-      <c r="S45">
-        <v>497</v>
-      </c>
-      <c r="T45">
-        <v>214</v>
-      </c>
-      <c r="U45">
-        <v>345</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -17326,43 +17339,201 @@
       <c r="E46">
         <v>166</v>
       </c>
-      <c r="R46">
-        <v>1307</v>
-      </c>
-      <c r="S46">
-        <v>1199</v>
-      </c>
-      <c r="T46">
-        <v>557</v>
-      </c>
-      <c r="U46">
-        <v>776</v>
-      </c>
-      <c r="V46">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="R47">
-        <v>176</v>
-      </c>
-      <c r="S47">
-        <v>154</v>
-      </c>
-      <c r="T47">
-        <v>44</v>
-      </c>
-      <c r="U47">
-        <v>166</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
+      <c r="B49" s="2">
+        <f>B55*F49/F55</f>
+        <v>331.08860614397065</v>
+      </c>
+      <c r="C49" s="2">
+        <f>C55*F49/F55</f>
+        <v>269.46377808344795</v>
+      </c>
+      <c r="D49" s="2">
+        <f>D55*F49/F55</f>
+        <v>127.35797799174691</v>
+      </c>
+      <c r="E49" s="2">
+        <f>E55*F49/F55</f>
+        <v>191.08963778083449</v>
+      </c>
+      <c r="F49" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2">
+        <f>B55*F50/F55</f>
+        <v>123.57278771205868</v>
+      </c>
+      <c r="C50" s="2">
+        <f>C55*F50/F55</f>
+        <v>100.57244383310407</v>
+      </c>
+      <c r="D50" s="2">
+        <f>D55*F50/F55</f>
+        <v>47.534044016506186</v>
+      </c>
+      <c r="E50" s="2">
+        <f>E55*F50/F55</f>
+        <v>71.320724438331041</v>
+      </c>
+      <c r="F50" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2">
+        <f>B55*F51/F55</f>
+        <v>495.7322329206786</v>
+      </c>
+      <c r="C51" s="2">
+        <f>C55*F51/F55</f>
+        <v>403.46263182026593</v>
+      </c>
+      <c r="D51" s="2">
+        <f>D55*F51/F55</f>
+        <v>190.69050894085282</v>
+      </c>
+      <c r="E51" s="2">
+        <f>E55*F51/F55</f>
+        <v>286.11462631820268</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2">
+        <f>B55*F52/F55</f>
+        <v>614.98177441540577</v>
+      </c>
+      <c r="C52" s="2">
+        <f>C55*F52/F55</f>
+        <v>500.5165061898212</v>
+      </c>
+      <c r="D52" s="2">
+        <f>D55*F52/F55</f>
+        <v>236.56155433287483</v>
+      </c>
+      <c r="E52" s="2">
+        <f>E55*F52/F55</f>
+        <v>354.9401650618982</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B55*F53/F55</f>
+        <v>1383.0785190279689</v>
+      </c>
+      <c r="C53" s="2">
+        <f>C55*F53/F55</f>
+        <v>1125.6490142136633</v>
+      </c>
+      <c r="D53" s="2">
+        <f>D55*F53/F55</f>
+        <v>532.02097661623111</v>
+      </c>
+      <c r="E53" s="2">
+        <f>E55*F53/F55</f>
+        <v>798.25149014213662</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2">
+        <f>B55*F54/F55</f>
+        <v>194.54607977991748</v>
+      </c>
+      <c r="C54" s="2">
+        <f>C55*F54/F55</f>
+        <v>158.33562585969739</v>
+      </c>
+      <c r="D54" s="2">
+        <f>D55*F54/F55</f>
+        <v>74.834938101788168</v>
+      </c>
+      <c r="E54" s="2">
+        <f>E55*F54/F55</f>
+        <v>112.28335625859697</v>
+      </c>
+      <c r="F54" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" s="26">
+        <v>3143</v>
+      </c>
+      <c r="C55" s="26">
+        <v>2558</v>
+      </c>
+      <c r="D55" s="26">
+        <v>1209</v>
+      </c>
+      <c r="E55" s="26">
+        <v>1814</v>
+      </c>
+      <c r="F55" s="26">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <f>CHITEST(B41:E46,B49:E54)</f>
+        <v>9.5721715604234106E-20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f>CHITEST(B42:E44,B50:E52)</f>
+        <v>9.8277189247762578E-4</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -20169,7 +20340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:J13"/>
     </sheetView>
   </sheetViews>

--- a/data/buzzfeed-debunk-combined/visualization.xlsx
+++ b/data/buzzfeed-debunk-combined/visualization.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="527">
   <si>
     <t xml:space="preserve">ftrue </t>
   </si>
@@ -4637,6 +4637,48 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Trained on Rashkin xtrain/Tested on Rubin</t>
+  </si>
+  <si>
+    <t>Trained on Rashkin xtrain/Tested on Snopes312</t>
+  </si>
+  <si>
+    <t>Snopes312</t>
+  </si>
+  <si>
+    <t>Rubin et al.</t>
+  </si>
+  <si>
+    <t>Rashkin et al.'s test</t>
+  </si>
+  <si>
+    <t>Test Categories</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>legitimate</t>
+  </si>
+  <si>
+    <t>satirical</t>
+  </si>
+  <si>
+    <t>propaganda</t>
+  </si>
+  <si>
+    <t>satire</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>trusted</t>
+  </si>
+  <si>
+    <t>BuzzfeedUSE</t>
   </si>
 </sst>
 </file>
@@ -4764,7 +4806,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4828,6 +4870,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4958,7 +5012,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5020,6 +5074,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5458,11 +5514,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1416438800"/>
-        <c:axId val="1529339536"/>
+        <c:axId val="-497392496"/>
+        <c:axId val="-124572960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1416438800"/>
+        <c:axId val="-497392496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +5561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1529339536"/>
+        <c:crossAx val="-124572960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5513,7 +5569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1529339536"/>
+        <c:axId val="-124572960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5564,7 +5620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1416438800"/>
+        <c:crossAx val="-497392496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5660,6 +5716,1288 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ftrue (train)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$E$34:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$F$34:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$G$34:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-496945840"/>
+        <c:axId val="-496944064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-496945840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-496944064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-496944064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-496945840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>5-way with TFIDF NB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ftrue (train)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mixture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TF-IDF'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TF-IDF'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-148274272"/>
+        <c:axId val="-120127040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-148274272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-120127040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-120127040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-148274272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -5860,11 +7198,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="1146770464"/>
-        <c:axId val="1146772784"/>
+        <c:axId val="-496197664"/>
+        <c:axId val="-496336464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146770464"/>
+        <c:axId val="-496197664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5907,7 +7245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146772784"/>
+        <c:crossAx val="-496336464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5915,7 +7253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146772784"/>
+        <c:axId val="-496336464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5966,7 +7304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146770464"/>
+        <c:crossAx val="-496197664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6356,11 +7694,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1146524816"/>
-        <c:axId val="1146527376"/>
+        <c:axId val="-120535152"/>
+        <c:axId val="-120552000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146524816"/>
+        <c:axId val="-120535152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,7 +7741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146527376"/>
+        <c:crossAx val="-120552000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6411,7 +7749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146527376"/>
+        <c:axId val="-120552000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,7 +7800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146524816"/>
+        <c:crossAx val="-120535152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6901,11 +8239,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1146519504"/>
-        <c:axId val="1146655904"/>
+        <c:axId val="-499071648"/>
+        <c:axId val="-499068816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146519504"/>
+        <c:axId val="-499071648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,7 +8286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146655904"/>
+        <c:crossAx val="-499068816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6956,7 +8294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146655904"/>
+        <c:axId val="-499068816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,7 +8345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146519504"/>
+        <c:crossAx val="-499071648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7350,11 +8688,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1148873792"/>
-        <c:axId val="1148672320"/>
+        <c:axId val="-123265264"/>
+        <c:axId val="-123452208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1148873792"/>
+        <c:axId val="-123265264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7397,7 +8735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148672320"/>
+        <c:crossAx val="-123452208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7405,7 +8743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148672320"/>
+        <c:axId val="-123452208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +8794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148873792"/>
+        <c:crossAx val="-123265264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7935,11 +9273,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1146683968"/>
-        <c:axId val="1146686800"/>
+        <c:axId val="-120837568"/>
+        <c:axId val="-120783984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146683968"/>
+        <c:axId val="-120837568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7982,7 +9320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146686800"/>
+        <c:crossAx val="-120783984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7990,7 +9328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146686800"/>
+        <c:axId val="-120783984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8041,7 +9379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146683968"/>
+        <c:crossAx val="-120837568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8136,37 +9474,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -8178,19 +9486,24 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$B$1</c:f>
+              <c:f>'rashkin classifier'!$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ftrue (train)</c:v>
+                  <c:v>Trusted</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="lgCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -8199,9 +9512,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$2:$A$7</c:f>
+              <c:f>'rashkin classifier'!$A$72:$A$76</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -8216,36 +9529,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$B$2:$B$7</c:f>
+              <c:f>'rashkin classifier'!$B$72:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>51.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8256,19 +9563,24 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$C$1</c:f>
+              <c:f>'rashkin classifier'!$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mtrue</c:v>
+                  <c:v>Propaganda</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -8277,9 +9589,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$2:$A$7</c:f>
+              <c:f>'rashkin classifier'!$A$72:$A$76</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -8294,36 +9606,30 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$C$2:$C$7</c:f>
+              <c:f>'rashkin classifier'!$C$72:$C$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>50.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8334,245 +9640,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$D$1</c:f>
+              <c:f>'rashkin classifier'!$D$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mixture</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$2:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pantsfire</c:v>
+                  <c:v>Satire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8589,9 +9661,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$2:$A$7</c:f>
+              <c:f>'rashkin classifier'!$A$72:$A$76</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -8606,36 +9678,107 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$G$2:$G$7</c:f>
+              <c:f>'rashkin classifier'!$D$72:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hoax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="7030A0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'rashkin classifier'!$A$72:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'rashkin classifier'!$E$72:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8651,11 +9794,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1146738400"/>
-        <c:axId val="1146880544"/>
+        <c:axId val="-117590544"/>
+        <c:axId val="-117587872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146738400"/>
+        <c:axId val="-117590544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8683,7 +9826,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8698,7 +9841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146880544"/>
+        <c:crossAx val="-117587872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8706,7 +9849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146880544"/>
+        <c:axId val="-117587872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8742,7 +9885,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8757,7 +9900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146738400"/>
+        <c:crossAx val="-117590544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8771,6 +9914,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8784,7 +9928,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8851,39 +9995,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0607745168217609"/>
+          <c:y val="0.260372733153398"/>
+          <c:w val="0.924452755905512"/>
+          <c:h val="0.351535544600834"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="percentStacked"/>
@@ -8893,79 +10017,151 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$B$22</c:f>
+              <c:f>'rashkin classifier'!$C$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ftrue (train)</c:v>
+                  <c:v>Trusted</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="accent5"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'rashkin classifier'!$A$95:$B$109</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>trusted</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>propaganda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>satire</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>hoax</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>legitimate</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>satirical</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mtrue </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mixture </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>nofact </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ftrue</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>mtrue</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mixture</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ffalse</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Rashkin et al.'s test</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Rubin et al.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BuzzfeedUSE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Snopes312</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$B$23:$B$29</c:f>
+              <c:f>'rashkin classifier'!$C$95:$C$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>157.0</c:v>
+                  <c:v>693.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.0</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8977,80 +10173,152 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$C$22</c:f>
+              <c:f>'rashkin classifier'!$D$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mtrue</c:v>
+                  <c:v>Propaganda</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'rashkin classifier'!$A$95:$B$109</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>trusted</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>propaganda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>satire</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>hoax</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>legitimate</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>satirical</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mtrue </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mixture </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>nofact </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ftrue</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>mtrue</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mixture</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ffalse</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Rashkin et al.'s test</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Rubin et al.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BuzzfeedUSE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Snopes312</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$C$23:$C$29</c:f>
+              <c:f>'rashkin classifier'!$D$95:$D$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>288.0</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189.0</c:v>
+                  <c:v>633.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>255.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.0</c:v>
+                  <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>784.0</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0</c:v>
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9061,80 +10329,150 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$D$22</c:f>
+              <c:f>'rashkin classifier'!$E$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mixture</c:v>
+                  <c:v>Satire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'rashkin classifier'!$A$95:$B$109</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>trusted</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>propaganda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>satire</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>hoax</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>legitimate</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>satirical</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mtrue </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mixture </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>nofact </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ftrue</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>mtrue</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mixture</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ffalse</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Rashkin et al.'s test</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Rubin et al.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BuzzfeedUSE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Snopes312</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$D$23:$D$29</c:f>
+              <c:f>'rashkin classifier'!$E$95:$E$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>359.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>395.0</c:v>
+                  <c:v>530.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>523.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1137.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>158.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.0</c:v>
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9145,248 +10483,152 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$E$22</c:f>
+              <c:f>'rashkin classifier'!$F$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mfalse</c:v>
+                  <c:v>Hoax</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:pattFill prst="wdDnDiag">
+              <a:fgClr>
+                <a:srgbClr val="7030A0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>'rashkin classifier'!$A$95:$B$109</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>trusted</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>propaganda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>satire</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>hoax</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>legitimate</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>satirical</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>mtrue </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mixture </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>nofact </c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ftrue</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>mtrue</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>mixture</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>mfalse</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ffalse</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Rashkin et al.'s test</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Rubin et al.</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BuzzfeedUSE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Snopes312</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$E$23:$E$29</c:f>
+              <c:f>'rashkin classifier'!$F$95:$F$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>242.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>375.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>279.0</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>304.0</c:v>
+                  <c:v>415.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>666.0</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$F$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$F$23:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>471.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>267.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>737.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>962.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2108.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'liar classifier'!$G$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'liar classifier'!$A$23:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>ftrue</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mtrue</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mixture</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mfalse</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ffalse</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pantsfire</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>nofact</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'liar classifier'!$G$23:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>396.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9402,11 +10644,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1533907568"/>
-        <c:axId val="1146860784"/>
+        <c:axId val="-118384528"/>
+        <c:axId val="-497592400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1533907568"/>
+        <c:axId val="-118384528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9415,7 +10657,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -9430,11 +10672,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-3900000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9449,7 +10691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146860784"/>
+        <c:crossAx val="-497592400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9457,7 +10699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146860784"/>
+        <c:axId val="-497592400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9493,7 +10735,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9508,9 +10750,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1533907568"/>
+        <c:crossAx val="-118384528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9522,6 +10765,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.322051816103632"/>
+          <c:y val="0.149095045838817"/>
+          <c:w val="0.365103462873592"/>
+          <c:h val="0.0859714448344559"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9535,7 +10788,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9644,7 +10897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$B$33</c:f>
+              <c:f>'liar classifier'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9665,41 +10918,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact</c:v>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$B$34:$B$37</c:f>
+              <c:f>'liar classifier'!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.0</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,7 +10975,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$C$33</c:f>
+              <c:f>'liar classifier'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9731,41 +10996,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact</c:v>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$C$34:$C$37</c:f>
+              <c:f>'liar classifier'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.0</c:v>
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9776,7 +11053,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$D$33</c:f>
+              <c:f>'liar classifier'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9797,41 +11074,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact</c:v>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$D$34:$D$37</c:f>
+              <c:f>'liar classifier'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>412.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9842,7 +11131,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$E$33</c:f>
+              <c:f>'liar classifier'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9863,41 +11152,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact</c:v>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$E$34:$E$37</c:f>
+              <c:f>'liar classifier'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>326.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.0</c:v>
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9908,7 +11209,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$F$33</c:f>
+              <c:f>'liar classifier'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9929,41 +11230,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact</c:v>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$F$34:$F$37</c:f>
+              <c:f>'liar classifier'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131.0</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9974,7 +11287,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'liar classifier'!$G$33</c:f>
+              <c:f>'liar classifier'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9995,41 +11308,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'liar classifier'!$A$34:$A$37</c:f>
+              <c:f>'liar classifier'!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>mtrue</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>mixture</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>mfalse</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>nofact</c:v>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'liar classifier'!$G$34:$G$37</c:f>
+              <c:f>'liar classifier'!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.0</c:v>
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,11 +11370,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1148904704"/>
-        <c:axId val="1148906752"/>
+        <c:axId val="-121572064"/>
+        <c:axId val="-121570288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1148904704"/>
+        <c:axId val="-121572064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10092,7 +11417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148906752"/>
+        <c:crossAx val="-121570288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10100,7 +11425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1148906752"/>
+        <c:axId val="-121570288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10151,7 +11476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1148904704"/>
+        <c:crossAx val="-121572064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10246,38 +11571,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>5-way with TFIDF NB</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10319,7 +11612,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$B$1</c:f>
+              <c:f>'liar classifier'!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10340,9 +11633,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -10357,30 +11650,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$B$2:$B$6</c:f>
+              <c:f>'liar classifier'!$B$23:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>111.0</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.0</c:v>
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10391,7 +11696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$C$1</c:f>
+              <c:f>'liar classifier'!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10412,9 +11717,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -10429,30 +11734,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$C$2:$C$6</c:f>
+              <c:f>'liar classifier'!$C$23:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.0</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>322.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.0</c:v>
+                  <c:v>784.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10463,7 +11780,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$D$1</c:f>
+              <c:f>'liar classifier'!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10484,9 +11801,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -10501,30 +11818,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$D$2:$D$6</c:f>
+              <c:f>'liar classifier'!$D$23:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>359.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>481.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.0</c:v>
+                  <c:v>395.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.0</c:v>
+                  <c:v>523.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.0</c:v>
+                  <c:v>1137.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10535,7 +11864,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$E$1</c:f>
+              <c:f>'liar classifier'!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10556,9 +11885,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -10573,30 +11902,42 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$E$2:$E$6</c:f>
+              <c:f>'liar classifier'!$E$23:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22.0</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.0</c:v>
+                  <c:v>375.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0</c:v>
+                  <c:v>279.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.0</c:v>
+                  <c:v>304.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.0</c:v>
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10607,7 +11948,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'TF-IDF'!$F$1</c:f>
+              <c:f>'liar classifier'!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10628,9 +11969,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TF-IDF'!$A$2:$A$6</c:f>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>ftrue</c:v>
                 </c:pt>
@@ -10645,30 +11986,126 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nofact</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TF-IDF'!$F$2:$F$6</c:f>
+              <c:f>'liar classifier'!$F$23:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>31.0</c:v>
+                  <c:v>471.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.0</c:v>
+                  <c:v>737.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.0</c:v>
+                  <c:v>962.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.0</c:v>
+                  <c:v>2108.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'liar classifier'!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'liar classifier'!$A$23:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>ftrue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mtrue</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mixture</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mfalse</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ffalse</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pantsfire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>nofact</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'liar classifier'!$G$23:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10684,11 +12121,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1146174880"/>
-        <c:axId val="1146176928"/>
+        <c:axId val="-124276784"/>
+        <c:axId val="-119321632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146174880"/>
+        <c:axId val="-124276784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10731,7 +12168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146176928"/>
+        <c:crossAx val="-119321632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10739,7 +12176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146176928"/>
+        <c:axId val="-119321632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10790,7 +12227,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146174880"/>
+        <c:crossAx val="-124276784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10911,6 +12348,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11776,6 +13293,1016 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16387,13 +18914,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16417,13 +18944,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16467,6 +18994,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16903,10 +19490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17537,6 +20124,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
@@ -17582,6 +20172,409 @@
       </c>
       <c r="E67">
         <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>519</v>
+      </c>
+      <c r="B94" t="s">
+        <v>518</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C95" s="26">
+        <v>693</v>
+      </c>
+      <c r="D95" s="26">
+        <v>27</v>
+      </c>
+      <c r="E95" s="26">
+        <v>26</v>
+      </c>
+      <c r="F95" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="26"/>
+      <c r="B96" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="C96" s="26">
+        <v>80</v>
+      </c>
+      <c r="D96" s="26">
+        <v>633</v>
+      </c>
+      <c r="E96" s="26">
+        <v>22</v>
+      </c>
+      <c r="F96" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="C97" s="26">
+        <v>40</v>
+      </c>
+      <c r="D97" s="26">
+        <v>44</v>
+      </c>
+      <c r="E97" s="26">
+        <v>530</v>
+      </c>
+      <c r="F97" s="26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="C98" s="26">
+        <v>57</v>
+      </c>
+      <c r="D98" s="26">
+        <v>218</v>
+      </c>
+      <c r="E98" s="26">
+        <v>60</v>
+      </c>
+      <c r="F98" s="26">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C99" s="28">
+        <v>30</v>
+      </c>
+      <c r="D99" s="28">
+        <v>44</v>
+      </c>
+      <c r="E99" s="28">
+        <v>72</v>
+      </c>
+      <c r="F99" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="C100" s="28">
+        <v>10</v>
+      </c>
+      <c r="D100" s="28">
+        <v>35</v>
+      </c>
+      <c r="E100" s="28">
+        <v>109</v>
+      </c>
+      <c r="F100" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="27">
+        <v>219</v>
+      </c>
+      <c r="D101" s="27">
+        <v>84</v>
+      </c>
+      <c r="E101" s="27">
+        <v>79</v>
+      </c>
+      <c r="F101" s="27">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="27">
+        <v>8</v>
+      </c>
+      <c r="D102" s="27">
+        <v>30</v>
+      </c>
+      <c r="E102" s="27">
+        <v>5</v>
+      </c>
+      <c r="F102" s="27">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="27"/>
+      <c r="B103" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="27">
+        <v>2</v>
+      </c>
+      <c r="D103" s="27">
+        <v>10</v>
+      </c>
+      <c r="E103" s="27">
+        <v>2</v>
+      </c>
+      <c r="F103" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="27">
+        <v>4</v>
+      </c>
+      <c r="D104" s="27">
+        <v>13</v>
+      </c>
+      <c r="E104" s="27">
+        <v>6</v>
+      </c>
+      <c r="F104" s="27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="22">
+        <v>15</v>
+      </c>
+      <c r="D105" s="22">
+        <v>4</v>
+      </c>
+      <c r="E105" s="22">
+        <v>4</v>
+      </c>
+      <c r="F105" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="22">
+        <v>15</v>
+      </c>
+      <c r="D106" s="22">
+        <v>4</v>
+      </c>
+      <c r="E106" s="22">
+        <v>4</v>
+      </c>
+      <c r="F106" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="22">
+        <v>13</v>
+      </c>
+      <c r="D107" s="22">
+        <v>6</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="22"/>
+      <c r="B108" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="22">
+        <v>8</v>
+      </c>
+      <c r="D108" s="22">
+        <v>9</v>
+      </c>
+      <c r="E108" s="22">
+        <v>2</v>
+      </c>
+      <c r="F108" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="22"/>
+      <c r="B109" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="22">
+        <v>2</v>
+      </c>
+      <c r="D109" s="22">
+        <v>8</v>
+      </c>
+      <c r="E109" s="22">
+        <v>4</v>
+      </c>
+      <c r="F109" s="22">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
